--- a/word_features/半年/CHA,2020-7~2021-1,主题_词矩阵.xlsx
+++ b/word_features/半年/CHA,2020-7~2021-1,主题_词矩阵.xlsx
@@ -14,606 +14,1206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t>专干</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>一带</t>
+  </si>
+  <si>
+    <t>不确定性</t>
+  </si>
+  <si>
+    <t>不稳定性</t>
+  </si>
+  <si>
+    <t>专家</t>
+  </si>
+  <si>
+    <t>专家组</t>
+  </si>
+  <si>
+    <t>世卫</t>
   </si>
   <si>
     <t>世界</t>
   </si>
   <si>
-    <t>主任医师</t>
-  </si>
-  <si>
-    <t>主任科员</t>
-  </si>
-  <si>
-    <t>主治医师</t>
-  </si>
-  <si>
-    <t>主管</t>
-  </si>
-  <si>
-    <t>主管护</t>
-  </si>
-  <si>
-    <t>书记</t>
-  </si>
-  <si>
-    <t>交通警察</t>
-  </si>
-  <si>
-    <t>人事科</t>
+    <t>世纪</t>
+  </si>
+  <si>
+    <t>东盟国家</t>
+  </si>
+  <si>
+    <t>两国人民</t>
+  </si>
+  <si>
+    <t>临床试验</t>
+  </si>
+  <si>
+    <t>主义</t>
+  </si>
+  <si>
+    <t>主席</t>
+  </si>
+  <si>
+    <t>主席国</t>
+  </si>
+  <si>
+    <t>主张</t>
+  </si>
+  <si>
+    <t>主旨</t>
+  </si>
+  <si>
+    <t>争端</t>
+  </si>
+  <si>
+    <t>事业</t>
+  </si>
+  <si>
+    <t>互利</t>
+  </si>
+  <si>
+    <t>亚太经济</t>
+  </si>
+  <si>
+    <t>亚愿景</t>
+  </si>
+  <si>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>产业</t>
+  </si>
+  <si>
+    <t>产业链</t>
+  </si>
+  <si>
+    <t>人体</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t>人士</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>人文</t>
+  </si>
+  <si>
+    <t>人民</t>
   </si>
   <si>
     <t>人类</t>
   </si>
   <si>
-    <t>信访局</t>
-  </si>
-  <si>
-    <t>党委书记</t>
-  </si>
-  <si>
-    <t>党委委员</t>
-  </si>
-  <si>
-    <t>党总支</t>
-  </si>
-  <si>
-    <t>党组</t>
-  </si>
-  <si>
-    <t>党组书记</t>
+    <t>人群</t>
+  </si>
+  <si>
+    <t>人道主义</t>
+  </si>
+  <si>
+    <t>人间正道</t>
+  </si>
+  <si>
+    <t>企业</t>
+  </si>
+  <si>
+    <t>伙伴</t>
+  </si>
+  <si>
+    <t>伙伴关系</t>
+  </si>
+  <si>
+    <t>会议</t>
+  </si>
+  <si>
+    <t>传播速度</t>
+  </si>
+  <si>
+    <t>传染性</t>
+  </si>
+  <si>
+    <t>传染病</t>
+  </si>
+  <si>
+    <t>住院</t>
+  </si>
+  <si>
+    <t>体制</t>
+  </si>
+  <si>
+    <t>体系</t>
+  </si>
+  <si>
+    <t>作出贡献</t>
+  </si>
+  <si>
+    <t>供应链</t>
+  </si>
+  <si>
+    <t>俄方</t>
+  </si>
+  <si>
+    <t>保护主义</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
+  <si>
+    <t>信心</t>
+  </si>
+  <si>
+    <t>倡议</t>
+  </si>
+  <si>
+    <t>债务</t>
+  </si>
+  <si>
+    <t>免疫学</t>
+  </si>
+  <si>
+    <t>入境</t>
+  </si>
+  <si>
+    <t>全世界</t>
+  </si>
+  <si>
+    <t>全人类</t>
+  </si>
+  <si>
+    <t>全员</t>
+  </si>
+  <si>
+    <t>全州</t>
   </si>
   <si>
     <t>全球</t>
   </si>
   <si>
-    <t>内科</t>
-  </si>
-  <si>
-    <t>内科主任</t>
-  </si>
-  <si>
-    <t>冷水滩区</t>
-  </si>
-  <si>
-    <t>副区长</t>
-  </si>
-  <si>
-    <t>副县长</t>
-  </si>
-  <si>
-    <t>副处长</t>
-  </si>
-  <si>
-    <t>副大队长</t>
-  </si>
-  <si>
-    <t>副局长</t>
-  </si>
-  <si>
-    <t>副科长</t>
-  </si>
-  <si>
-    <t>办事处</t>
-  </si>
-  <si>
-    <t>办公厅</t>
-  </si>
-  <si>
-    <t>办公室</t>
-  </si>
-  <si>
-    <t>劳动卫生</t>
-  </si>
-  <si>
-    <t>医务科</t>
-  </si>
-  <si>
-    <t>医务部</t>
-  </si>
-  <si>
-    <t>医士</t>
-  </si>
-  <si>
-    <t>医学科</t>
-  </si>
-  <si>
-    <t>医师</t>
-  </si>
-  <si>
-    <t>医政</t>
-  </si>
-  <si>
-    <t>医管</t>
+    <t>全球化</t>
+  </si>
+  <si>
+    <t>全球性</t>
+  </si>
+  <si>
+    <t>全面</t>
+  </si>
+  <si>
+    <t>公众</t>
+  </si>
+  <si>
+    <t>公共卫生</t>
+  </si>
+  <si>
+    <t>公平</t>
+  </si>
+  <si>
+    <t>公平正义</t>
+  </si>
+  <si>
+    <t>公约</t>
+  </si>
+  <si>
+    <t>共克</t>
+  </si>
+  <si>
+    <t>共创</t>
+  </si>
+  <si>
+    <t>共同体</t>
+  </si>
+  <si>
+    <t>共同利益</t>
+  </si>
+  <si>
+    <t>共商</t>
+  </si>
+  <si>
+    <t>共识</t>
+  </si>
+  <si>
+    <t>共谋</t>
+  </si>
+  <si>
+    <t>关税</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>典范</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>内需</t>
+  </si>
+  <si>
+    <t>冷链</t>
+  </si>
+  <si>
+    <t>出院</t>
+  </si>
+  <si>
+    <t>分型</t>
+  </si>
+  <si>
+    <t>分歧</t>
+  </si>
+  <si>
+    <t>利益</t>
+  </si>
+  <si>
+    <t>制药</t>
+  </si>
+  <si>
+    <t>刷新纪录</t>
+  </si>
+  <si>
+    <t>前景</t>
+  </si>
+  <si>
+    <t>动力</t>
+  </si>
+  <si>
+    <t>势头</t>
+  </si>
+  <si>
+    <t>包容性</t>
+  </si>
+  <si>
+    <t>区例</t>
+  </si>
+  <si>
+    <t>区域合作</t>
+  </si>
+  <si>
+    <t>医学杂志</t>
+  </si>
+  <si>
+    <t>医学观察</t>
+  </si>
+  <si>
+    <t>医疗机构</t>
+  </si>
+  <si>
+    <t>医疗系统</t>
   </si>
   <si>
     <t>医院</t>
   </si>
   <si>
-    <t>医院院长</t>
-  </si>
-  <si>
-    <t>卷烟</t>
-  </si>
-  <si>
-    <t>双井</t>
-  </si>
-  <si>
-    <t>双牌县</t>
-  </si>
-  <si>
-    <t>口区</t>
-  </si>
-  <si>
-    <t>周率</t>
-  </si>
-  <si>
-    <t>团险</t>
+    <t>协商</t>
+  </si>
+  <si>
+    <t>单日</t>
+  </si>
+  <si>
+    <t>单边主义</t>
+  </si>
+  <si>
+    <t>博会</t>
+  </si>
+  <si>
+    <t>博览会</t>
+  </si>
+  <si>
+    <t>卫生系统</t>
+  </si>
+  <si>
+    <t>卫生部长</t>
+  </si>
+  <si>
+    <t>卫生部门</t>
+  </si>
+  <si>
+    <t>危机</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>历史性</t>
+  </si>
+  <si>
+    <t>历史潮流</t>
+  </si>
+  <si>
+    <t>原则</t>
+  </si>
+  <si>
+    <t>双方</t>
+  </si>
+  <si>
+    <t>双边</t>
+  </si>
+  <si>
+    <t>双边关系</t>
+  </si>
+  <si>
+    <t>发布会</t>
+  </si>
+  <si>
+    <t>受试者</t>
+  </si>
+  <si>
+    <t>变局</t>
+  </si>
+  <si>
+    <t>变异</t>
+  </si>
+  <si>
+    <t>变种</t>
+  </si>
+  <si>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>可持续性</t>
+  </si>
+  <si>
+    <t>合力</t>
+  </si>
+  <si>
+    <t>同志</t>
+  </si>
+  <si>
+    <t>同意书</t>
+  </si>
+  <si>
+    <t>周年纪念</t>
+  </si>
+  <si>
+    <t>命运</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>商厦</t>
+  </si>
+  <si>
+    <t>因私</t>
+  </si>
+  <si>
+    <t>团结合作</t>
+  </si>
+  <si>
+    <t>国务委员</t>
   </si>
   <si>
     <t>国家</t>
   </si>
   <si>
+    <t>国情</t>
+  </si>
+  <si>
+    <t>国药</t>
+  </si>
+  <si>
     <t>国际</t>
   </si>
   <si>
-    <t>地矿</t>
-  </si>
-  <si>
-    <t>垃圾场</t>
-  </si>
-  <si>
-    <t>声融</t>
-  </si>
-  <si>
-    <t>大友</t>
-  </si>
-  <si>
-    <t>大祥区</t>
-  </si>
-  <si>
-    <t>大队</t>
-  </si>
-  <si>
-    <t>天元区</t>
-  </si>
-  <si>
-    <t>天心区</t>
-  </si>
-  <si>
-    <t>奇勋</t>
-  </si>
-  <si>
-    <t>奇女</t>
-  </si>
-  <si>
-    <t>女子监狱</t>
-  </si>
-  <si>
-    <t>妇幼保健</t>
-  </si>
-  <si>
-    <t>委员会</t>
-  </si>
-  <si>
-    <t>姣女</t>
-  </si>
-  <si>
-    <t>娄底市委</t>
-  </si>
-  <si>
-    <t>娇女</t>
-  </si>
-  <si>
-    <t>嫦女</t>
-  </si>
-  <si>
-    <t>学林</t>
-  </si>
-  <si>
-    <t>学院路</t>
-  </si>
-  <si>
-    <t>宗教团体</t>
-  </si>
-  <si>
-    <t>室主任</t>
-  </si>
-  <si>
-    <t>局中车</t>
-  </si>
-  <si>
-    <t>局疾</t>
-  </si>
-  <si>
-    <t>局长</t>
-  </si>
-  <si>
-    <t>巷村</t>
-  </si>
-  <si>
-    <t>市委</t>
-  </si>
-  <si>
-    <t>师伍</t>
-  </si>
-  <si>
-    <t>师童</t>
-  </si>
-  <si>
-    <t>心外科</t>
-  </si>
-  <si>
-    <t>心血管</t>
-  </si>
-  <si>
-    <t>心血管病</t>
-  </si>
-  <si>
-    <t>心身</t>
-  </si>
-  <si>
-    <t>急诊科</t>
-  </si>
-  <si>
-    <t>情报中心</t>
-  </si>
-  <si>
-    <t>意女</t>
-  </si>
-  <si>
-    <t>成文</t>
-  </si>
-  <si>
-    <t>执法局</t>
-  </si>
-  <si>
-    <t>技士</t>
-  </si>
-  <si>
-    <t>技师</t>
-  </si>
-  <si>
-    <t>护士长</t>
-  </si>
-  <si>
-    <t>护师</t>
-  </si>
-  <si>
-    <t>护理学</t>
-  </si>
-  <si>
-    <t>护理部</t>
-  </si>
-  <si>
-    <t>支队</t>
-  </si>
-  <si>
-    <t>支队党委</t>
-  </si>
-  <si>
-    <t>教研室</t>
-  </si>
-  <si>
-    <t>教育处</t>
-  </si>
-  <si>
-    <t>整形科</t>
-  </si>
-  <si>
-    <t>方军</t>
-  </si>
-  <si>
-    <t>服务中心</t>
-  </si>
-  <si>
-    <t>服务处</t>
-  </si>
-  <si>
-    <t>机关党委</t>
-  </si>
-  <si>
-    <t>机械工程</t>
-  </si>
-  <si>
-    <t>桂商</t>
-  </si>
-  <si>
-    <t>桃李园</t>
-  </si>
-  <si>
-    <t>桥镇</t>
-  </si>
-  <si>
-    <t>检验科</t>
-  </si>
-  <si>
-    <t>椅村</t>
-  </si>
-  <si>
-    <t>水业</t>
-  </si>
-  <si>
-    <t>水波</t>
-  </si>
-  <si>
-    <t>汽制</t>
-  </si>
-  <si>
-    <t>治安管理</t>
-  </si>
-  <si>
-    <t>泥塘</t>
-  </si>
-  <si>
-    <t>泥脚</t>
-  </si>
-  <si>
-    <t>液压件</t>
-  </si>
-  <si>
-    <t>滩乡</t>
-  </si>
-  <si>
-    <t>烧伤科</t>
-  </si>
-  <si>
-    <t>版权局</t>
-  </si>
-  <si>
-    <t>特勤</t>
-  </si>
-  <si>
-    <t>特种行业</t>
-  </si>
-  <si>
-    <t>玉女</t>
-  </si>
-  <si>
-    <t>珠女</t>
-  </si>
-  <si>
-    <t>甘子</t>
-  </si>
-  <si>
-    <t>电视台</t>
+    <t>国际事务</t>
+  </si>
+  <si>
+    <t>国际形势</t>
+  </si>
+  <si>
+    <t>国际法</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>地球</t>
+  </si>
+  <si>
+    <t>场所</t>
+  </si>
+  <si>
+    <t>坦方</t>
+  </si>
+  <si>
+    <t>基因组</t>
+  </si>
+  <si>
+    <t>基本准则</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>外交</t>
+  </si>
+  <si>
+    <t>外交部长</t>
+  </si>
+  <si>
+    <t>外媒</t>
+  </si>
+  <si>
+    <t>外长</t>
+  </si>
+  <si>
+    <t>大势</t>
+  </si>
+  <si>
+    <t>大变局</t>
+  </si>
+  <si>
+    <t>大山子</t>
+  </si>
+  <si>
+    <t>大臣</t>
+  </si>
+  <si>
+    <t>大门</t>
+  </si>
+  <si>
+    <t>天花</t>
+  </si>
+  <si>
+    <t>契机</t>
+  </si>
+  <si>
+    <t>女士们</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>宏观政策</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+  </si>
+  <si>
+    <t>宪章</t>
+  </si>
+  <si>
+    <t>家庭聚会</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>小康社会</t>
+  </si>
+  <si>
+    <t>小果</t>
+  </si>
+  <si>
+    <t>局势</t>
+  </si>
+  <si>
+    <t>局部</t>
+  </si>
+  <si>
+    <t>居家</t>
+  </si>
+  <si>
+    <t>屏障</t>
+  </si>
+  <si>
+    <t>峰会</t>
+  </si>
+  <si>
+    <t>峰值</t>
+  </si>
+  <si>
+    <t>州长</t>
+  </si>
+  <si>
+    <t>工作组</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>市场准入</t>
+  </si>
+  <si>
+    <t>庄村</t>
+  </si>
+  <si>
+    <t>序列</t>
+  </si>
+  <si>
+    <t>建设性</t>
+  </si>
+  <si>
+    <t>开幕式</t>
+  </si>
+  <si>
+    <t>开放市场</t>
+  </si>
+  <si>
+    <t>强权政治</t>
+  </si>
+  <si>
+    <t>强音</t>
+  </si>
+  <si>
+    <t>形势</t>
+  </si>
+  <si>
+    <t>影像学</t>
+  </si>
+  <si>
+    <t>征程</t>
+  </si>
+  <si>
+    <t>微生物学</t>
+  </si>
+  <si>
+    <t>总干事</t>
+  </si>
+  <si>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>总理府</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>恐怖主义</t>
+  </si>
+  <si>
+    <t>恐怖袭击</t>
+  </si>
+  <si>
+    <t>患者</t>
+  </si>
+  <si>
+    <t>意义</t>
+  </si>
+  <si>
+    <t>感染率</t>
+  </si>
+  <si>
+    <t>感染者</t>
+  </si>
+  <si>
+    <t>成员国</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>成果</t>
+  </si>
+  <si>
+    <t>战书</t>
+  </si>
+  <si>
+    <t>战略</t>
+  </si>
+  <si>
+    <t>战略伙伴</t>
+  </si>
+  <si>
+    <t>战胜</t>
+  </si>
+  <si>
+    <t>扩大内需</t>
+  </si>
+  <si>
+    <t>抗体</t>
+  </si>
+  <si>
+    <t>报告</t>
+  </si>
+  <si>
+    <t>持久和平</t>
+  </si>
+  <si>
+    <t>指明方向</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>提供援助</t>
+  </si>
+  <si>
+    <t>摩方</t>
+  </si>
+  <si>
+    <t>攻关组</t>
+  </si>
+  <si>
+    <t>政客</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>政治化</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>新冠</t>
+  </si>
+  <si>
+    <t>新动力</t>
+  </si>
+  <si>
+    <t>新愿景</t>
+  </si>
+  <si>
+    <t>新机遇</t>
+  </si>
+  <si>
+    <t>新闻</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>旗帜</t>
+  </si>
+  <si>
+    <t>日益</t>
+  </si>
+  <si>
+    <t>时代</t>
+  </si>
+  <si>
+    <t>时分</t>
+  </si>
+  <si>
+    <t>时天</t>
+  </si>
+  <si>
+    <t>时艰</t>
+  </si>
+  <si>
+    <t>时说</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>普通型</t>
+  </si>
+  <si>
+    <t>晶晶</t>
+  </si>
+  <si>
+    <t>智库</t>
+  </si>
+  <si>
+    <t>智能</t>
+  </si>
+  <si>
+    <t>有力</t>
+  </si>
+  <si>
+    <t>有效性</t>
+  </si>
+  <si>
+    <t>服务业</t>
+  </si>
+  <si>
+    <t>服贸会</t>
+  </si>
+  <si>
+    <t>本土</t>
+  </si>
+  <si>
+    <t>机遇</t>
+  </si>
+  <si>
+    <t>村镇</t>
+  </si>
+  <si>
+    <t>样本</t>
+  </si>
+  <si>
+    <t>核心</t>
+  </si>
+  <si>
+    <t>核心作用</t>
+  </si>
+  <si>
+    <t>核酸</t>
+  </si>
+  <si>
+    <t>格局</t>
+  </si>
+  <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>欧方</t>
+  </si>
+  <si>
+    <t>正确方向</t>
+  </si>
+  <si>
+    <t>步伐</t>
+  </si>
+  <si>
+    <t>毒株</t>
+  </si>
+  <si>
+    <t>民众</t>
+  </si>
+  <si>
+    <t>民族主义</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>气候变化</t>
+  </si>
+  <si>
+    <t>水资源</t>
+  </si>
+  <si>
+    <t>沙方</t>
+  </si>
+  <si>
+    <t>法国人</t>
+  </si>
+  <si>
+    <t>法国总理</t>
+  </si>
+  <si>
+    <t>活力</t>
+  </si>
+  <si>
+    <t>活疫苗</t>
+  </si>
+  <si>
+    <t>流感</t>
+  </si>
+  <si>
+    <t>流感疫苗</t>
+  </si>
+  <si>
+    <t>流行病</t>
+  </si>
+  <si>
+    <t>流行病学</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>潜力</t>
+  </si>
+  <si>
+    <t>潮流</t>
+  </si>
+  <si>
+    <t>灾难性</t>
+  </si>
+  <si>
+    <t>特稿</t>
+  </si>
+  <si>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>现实意义</t>
+  </si>
+  <si>
+    <t>现汇</t>
+  </si>
+  <si>
+    <t>理事会</t>
+  </si>
+  <si>
+    <t>理念</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>生物制品</t>
   </si>
   <si>
     <t>疫情</t>
   </si>
   <si>
+    <t>疫情报告</t>
+  </si>
+  <si>
+    <t>疫苗</t>
+  </si>
+  <si>
+    <t>疾控中心</t>
+  </si>
+  <si>
     <t>疾病</t>
   </si>
   <si>
-    <t>病科</t>
-  </si>
-  <si>
-    <t>盐业</t>
-  </si>
-  <si>
-    <t>监狱长</t>
-  </si>
-  <si>
-    <t>看守所</t>
-  </si>
-  <si>
-    <t>石堤</t>
-  </si>
-  <si>
-    <t>社站</t>
-  </si>
-  <si>
-    <t>科主任</t>
-  </si>
-  <si>
-    <t>科员</t>
-  </si>
-  <si>
-    <t>科市</t>
-  </si>
-  <si>
-    <t>科教部</t>
-  </si>
-  <si>
-    <t>科科长</t>
-  </si>
-  <si>
-    <t>科长</t>
-  </si>
-  <si>
-    <t>程钢</t>
-  </si>
-  <si>
-    <t>管理区</t>
-  </si>
-  <si>
-    <t>管理处</t>
-  </si>
-  <si>
-    <t>管理局</t>
-  </si>
-  <si>
-    <t>管理科</t>
-  </si>
-  <si>
-    <t>精神病学</t>
-  </si>
-  <si>
-    <t>组织部</t>
-  </si>
-  <si>
-    <t>细娟</t>
-  </si>
-  <si>
-    <t>经侦大队</t>
+    <t>病例</t>
+  </si>
+  <si>
+    <t>病原</t>
+  </si>
+  <si>
+    <t>病毒</t>
+  </si>
+  <si>
+    <t>病毒传播</t>
+  </si>
+  <si>
+    <t>病毒基因</t>
+  </si>
+  <si>
+    <t>病毒学家</t>
+  </si>
+  <si>
+    <t>病毒感染</t>
+  </si>
+  <si>
+    <t>病毒感染者</t>
+  </si>
+  <si>
+    <t>病毒检测</t>
+  </si>
+  <si>
+    <t>症状</t>
+  </si>
+  <si>
+    <t>盛会</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>知情</t>
+  </si>
+  <si>
+    <t>研究所</t>
+  </si>
+  <si>
+    <t>社交</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>社会制度</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>禁忌症</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>科研</t>
+  </si>
+  <si>
+    <t>秘书长</t>
+  </si>
+  <si>
+    <t>秩序</t>
+  </si>
+  <si>
+    <t>立场</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>纪录</t>
   </si>
   <si>
     <t>经济</t>
   </si>
   <si>
-    <t>经营部</t>
-  </si>
-  <si>
-    <t>结核</t>
-  </si>
-  <si>
-    <t>结防</t>
-  </si>
-  <si>
-    <t>网岭</t>
-  </si>
-  <si>
-    <t>网络管理员</t>
-  </si>
-  <si>
-    <t>老年医学</t>
-  </si>
-  <si>
-    <t>股长</t>
-  </si>
-  <si>
-    <t>肺病</t>
-  </si>
-  <si>
-    <t>肿瘤科</t>
-  </si>
-  <si>
-    <t>脑科</t>
-  </si>
-  <si>
-    <t>艳霞</t>
-  </si>
-  <si>
-    <t>花女</t>
-  </si>
-  <si>
-    <t>茶元头</t>
-  </si>
-  <si>
-    <t>荣女</t>
-  </si>
-  <si>
-    <t>药师</t>
-  </si>
-  <si>
-    <t>菱角</t>
-  </si>
-  <si>
-    <t>血吸虫病</t>
-  </si>
-  <si>
-    <t>街道</t>
-  </si>
-  <si>
-    <t>街道社区</t>
-  </si>
-  <si>
-    <t>警令</t>
-  </si>
-  <si>
-    <t>计生</t>
-  </si>
-  <si>
-    <t>评论部</t>
-  </si>
-  <si>
-    <t>诊断学</t>
-  </si>
-  <si>
-    <t>调查室</t>
-  </si>
-  <si>
-    <t>调研员</t>
-  </si>
-  <si>
-    <t>调研室</t>
-  </si>
-  <si>
-    <t>贞女</t>
-  </si>
-  <si>
-    <t>资兴市</t>
-  </si>
-  <si>
-    <t>资阳区</t>
-  </si>
-  <si>
-    <t>超女</t>
-  </si>
-  <si>
-    <t>运输处</t>
-  </si>
-  <si>
-    <t>通信地址</t>
-  </si>
-  <si>
-    <t>邮政编码</t>
+    <t>经济体</t>
+  </si>
+  <si>
+    <t>经济学家</t>
+  </si>
+  <si>
+    <t>经济社会</t>
+  </si>
+  <si>
+    <t>经济运行</t>
+  </si>
+  <si>
+    <t>经贸</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>结构性</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>统计数据</t>
+  </si>
+  <si>
+    <t>维护和平</t>
+  </si>
+  <si>
+    <t>维护者</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>缔约方</t>
+  </si>
+  <si>
+    <t>网站</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>聚会</t>
+  </si>
+  <si>
+    <t>聚餐</t>
+  </si>
+  <si>
+    <t>肺炎</t>
+  </si>
+  <si>
+    <t>肺结核</t>
+  </si>
+  <si>
+    <t>腺病毒</t>
+  </si>
+  <si>
+    <t>致力于</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>药物</t>
+  </si>
+  <si>
+    <t>营商</t>
+  </si>
+  <si>
+    <t>蛋白</t>
+  </si>
+  <si>
+    <t>血清</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>行径</t>
+  </si>
+  <si>
+    <t>规划</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>规定</t>
+  </si>
+  <si>
+    <t>规律性</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>警钟</t>
+  </si>
+  <si>
+    <t>议定书</t>
+  </si>
+  <si>
+    <t>议程</t>
+  </si>
+  <si>
+    <t>记者会</t>
+  </si>
+  <si>
+    <t>讲话</t>
+  </si>
+  <si>
+    <t>论坛</t>
+  </si>
+  <si>
+    <t>证据</t>
+  </si>
+  <si>
+    <t>负增长</t>
+  </si>
+  <si>
+    <t>负面</t>
+  </si>
+  <si>
+    <t>贡献</t>
+  </si>
+  <si>
+    <t>财政政策</t>
+  </si>
+  <si>
+    <t>财政部长</t>
+  </si>
+  <si>
+    <t>贫富差距</t>
+  </si>
+  <si>
+    <t>贸易规模</t>
+  </si>
+  <si>
+    <t>贸易量</t>
+  </si>
+  <si>
+    <t>贸易额</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>路透社</t>
+  </si>
+  <si>
+    <t>轮值</t>
+  </si>
+  <si>
+    <t>辩论</t>
+  </si>
+  <si>
+    <t>过敏症</t>
+  </si>
+  <si>
+    <t>进程</t>
+  </si>
+  <si>
+    <t>连续性</t>
+  </si>
+  <si>
+    <t>逆流</t>
+  </si>
+  <si>
+    <t>通报</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>里程碑</t>
   </si>
   <si>
     <t>重症</t>
   </si>
   <si>
-    <t>银花</t>
-  </si>
-  <si>
-    <t>镇炎</t>
-  </si>
-  <si>
-    <t>长益</t>
-  </si>
-  <si>
-    <t>阶联</t>
-  </si>
-  <si>
-    <t>院产</t>
-  </si>
-  <si>
-    <t>院长</t>
-  </si>
-  <si>
-    <t>陵区</t>
-  </si>
-  <si>
-    <t>集里</t>
-  </si>
-  <si>
-    <t>雨花区</t>
-  </si>
-  <si>
-    <t>零阳</t>
-  </si>
-  <si>
-    <t>零阳镇</t>
-  </si>
-  <si>
-    <t>零陵</t>
-  </si>
-  <si>
-    <t>青志</t>
-  </si>
-  <si>
-    <t>马脑</t>
-  </si>
-  <si>
-    <t>骆理</t>
-  </si>
-  <si>
-    <t>高兵</t>
-  </si>
-  <si>
-    <t>高科</t>
-  </si>
-  <si>
-    <t>黄力</t>
-  </si>
-  <si>
-    <t>黄果</t>
-  </si>
-  <si>
-    <t>龙术</t>
+    <t>金砖</t>
+  </si>
+  <si>
+    <t>金融危机</t>
+  </si>
+  <si>
+    <t>针剂</t>
+  </si>
+  <si>
+    <t>阳性</t>
+  </si>
+  <si>
+    <t>阳性率</t>
+  </si>
+  <si>
+    <t>阴性</t>
+  </si>
+  <si>
+    <t>阴霾</t>
+  </si>
+  <si>
+    <t>雄心</t>
+  </si>
+  <si>
+    <t>零星</t>
+  </si>
+  <si>
+    <t>霸权主义</t>
+  </si>
+  <si>
+    <t>非传统</t>
+  </si>
+  <si>
+    <t>韧性</t>
+  </si>
+  <si>
+    <t>领域</t>
+  </si>
+  <si>
+    <t>领导人</t>
+  </si>
+  <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>食品</t>
+  </si>
+  <si>
+    <t>首例</t>
+  </si>
+  <si>
+    <t>验码</t>
+  </si>
+  <si>
+    <t>高层</t>
+  </si>
+  <si>
+    <t>高度评价</t>
+  </si>
+  <si>
+    <t>高质量</t>
+  </si>
+  <si>
+    <t>高风险</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>0.3440919690014254</v>
+        <v>0.3413701135256971</v>
       </c>
       <c r="C2">
-        <v>5991.283636483225</v>
+        <v>0.3763066040858737</v>
       </c>
       <c r="D2">
-        <v>0.3350091052247321</v>
+        <v>0.3380666705678766</v>
       </c>
       <c r="E2">
-        <v>0.3334470259259983</v>
+        <v>32.73439822292418</v>
       </c>
       <c r="F2">
-        <v>0.33767260418072</v>
+        <v>9.288712866731165</v>
       </c>
       <c r="G2">
-        <v>4.528601054268965</v>
+        <v>17.57675156743838</v>
       </c>
       <c r="H2">
-        <v>0.3336012909528241</v>
+        <v>0.361736464313463</v>
       </c>
       <c r="I2">
-        <v>0.3553158500768157</v>
+        <v>0.6874653532607333</v>
       </c>
       <c r="J2">
-        <v>0.3334086069964469</v>
+        <v>0.3353993497324313</v>
       </c>
       <c r="K2">
-        <v>0.3334113235869816</v>
+        <v>0.3392528550171159</v>
       </c>
       <c r="L2">
-        <v>2379.267538480352</v>
+        <v>19.649567852084</v>
       </c>
       <c r="M2">
-        <v>0.3334052276809035</v>
+        <v>0.3357943883475503</v>
       </c>
       <c r="N2">
-        <v>0.3562149699245154</v>
+        <v>0.3475979496986955</v>
       </c>
       <c r="O2">
-        <v>0.3370579399881153</v>
+        <v>0.3340242766486426</v>
       </c>
       <c r="P2">
-        <v>0.3377882462531491</v>
+        <v>0.3667045001010987</v>
       </c>
       <c r="Q2">
-        <v>0.3575139683076472</v>
+        <v>0.3392728897946128</v>
       </c>
       <c r="R2">
-        <v>0.3669380456564222</v>
+        <v>0.3365047971581716</v>
       </c>
       <c r="S2">
-        <v>8010.257383084799</v>
+        <v>0.3661314255914122</v>
       </c>
       <c r="T2">
-        <v>0.3347666983462134</v>
+        <v>0.3361707164260189</v>
       </c>
       <c r="U2">
-        <v>0.3342529663280661</v>
+        <v>0.333896756413076</v>
       </c>
       <c r="V2">
-        <v>0.3334095407039627</v>
+        <v>0.3341329404044636</v>
       </c>
       <c r="W2">
-        <v>0.3523271165608528</v>
+        <v>0.4000737561613057</v>
       </c>
       <c r="X2">
-        <v>0.3383540590224431</v>
+        <v>0.3445566817816162</v>
       </c>
       <c r="Y2">
-        <v>0.3432505240289877</v>
+        <v>0.3439690984561825</v>
       </c>
       <c r="Z2">
-        <v>0.3334891537493533</v>
+        <v>7.00820955934236</v>
       </c>
       <c r="AA2">
-        <v>0.4046839816490909</v>
+        <v>10.13491644414554</v>
       </c>
       <c r="AB2">
-        <v>0.338013869196652</v>
+        <v>96.09510301868295</v>
       </c>
       <c r="AC2">
-        <v>0.343499762331038</v>
+        <v>3.606647546704651</v>
       </c>
       <c r="AD2">
-        <v>0.3421282083919299</v>
+        <v>26.11133745869988</v>
       </c>
       <c r="AE2">
-        <v>0.382301267208685</v>
+        <v>0.3657527009599819</v>
       </c>
       <c r="AF2">
-        <v>0.3334158902648915</v>
+        <v>8.440447302823225</v>
       </c>
       <c r="AG2">
-        <v>0.3334045050751326</v>
+        <v>0.3698617659907772</v>
       </c>
       <c r="AH2">
-        <v>0.3334065271254328</v>
+        <v>35.56931502695386</v>
       </c>
       <c r="AI2">
-        <v>0.3334158902648915</v>
+        <v>0.3442665476241663</v>
       </c>
       <c r="AJ2">
-        <v>0.3353697187031112</v>
+        <v>0.3387819455349066</v>
       </c>
       <c r="AK2">
-        <v>0.3378172855230039</v>
+        <v>0.4102620438982</v>
       </c>
       <c r="AL2">
-        <v>0.3376764074475236</v>
+        <v>0.3443572722325255</v>
       </c>
       <c r="AM2">
-        <v>0.3333992497727041</v>
+        <v>0.3361295476333287</v>
       </c>
       <c r="AN2">
-        <v>0.3575132868798638</v>
+        <v>5.519022043589529</v>
       </c>
       <c r="AO2">
-        <v>0.3460665389977269</v>
+        <v>3.044030935788467</v>
       </c>
       <c r="AP2">
-        <v>0.3334158902648915</v>
+        <v>5.149953426447441</v>
       </c>
       <c r="AQ2">
-        <v>0.3334158902648915</v>
+        <v>23.96780475763569</v>
       </c>
       <c r="AR2">
-        <v>0.3334113235869816</v>
+        <v>9.624746349109753</v>
       </c>
       <c r="AS2">
-        <v>0.3334086069964469</v>
+        <v>0.3509507982013264</v>
       </c>
       <c r="AT2">
-        <v>0.3334158902648915</v>
+        <v>1.415204307011166</v>
       </c>
       <c r="AU2">
-        <v>0.3334158902648915</v>
+        <v>0.3918410328456469</v>
       </c>
       <c r="AV2">
-        <v>5712.130831478438</v>
+        <v>0.3488108048114645</v>
       </c>
       <c r="AW2">
-        <v>7149.234470011473</v>
+        <v>0.3411080957151778</v>
       </c>
       <c r="AX2">
-        <v>0.3334158902648915</v>
+        <v>0.3358755126115674</v>
       </c>
       <c r="AY2">
-        <v>0.3334158902648915</v>
+        <v>0.9587636003934246</v>
       </c>
       <c r="AZ2">
-        <v>0.3334158902648915</v>
+        <v>2.212212398091254</v>
       </c>
       <c r="BA2">
-        <v>0.3334158902648915</v>
+        <v>0.3568267511925095</v>
       </c>
       <c r="BB2">
-        <v>0.3334113235869816</v>
+        <v>0.3493263195368435</v>
       </c>
       <c r="BC2">
-        <v>0.3371700423833634</v>
+        <v>2.292171083654476</v>
       </c>
       <c r="BD2">
-        <v>0.3334095407039627</v>
+        <v>21.02359334051748</v>
       </c>
       <c r="BE2">
-        <v>0.3361539558375029</v>
+        <v>0.4255187593019154</v>
       </c>
       <c r="BF2">
-        <v>0.3334158902648915</v>
+        <v>0.3471964161943034</v>
       </c>
       <c r="BG2">
-        <v>0.3334158902648915</v>
+        <v>22.25802981965258</v>
       </c>
       <c r="BH2">
-        <v>0.3334113235869816</v>
+        <v>2.980769493237009</v>
       </c>
       <c r="BI2">
-        <v>0.3842469451794175</v>
+        <v>14.45676213338154</v>
       </c>
       <c r="BJ2">
-        <v>127.9439151949052</v>
+        <v>0.341646288049519</v>
       </c>
       <c r="BK2">
-        <v>0.3334158902648915</v>
+        <v>0.3401510268837775</v>
       </c>
       <c r="BL2">
-        <v>0.3334158902648915</v>
+        <v>8.45710177287147</v>
       </c>
       <c r="BM2">
-        <v>0.3334158902648915</v>
+        <v>24.36688558398025</v>
       </c>
       <c r="BN2">
-        <v>0.3334158902648915</v>
+        <v>20.79349037790618</v>
       </c>
       <c r="BO2">
-        <v>0.3334158902648915</v>
+        <v>0.3959233134065982</v>
       </c>
       <c r="BP2">
-        <v>0.3334158902648915</v>
+        <v>0.3389153399154479</v>
       </c>
       <c r="BQ2">
-        <v>0.3693614090100334</v>
+        <v>0.3750149261427781</v>
       </c>
       <c r="BR2">
-        <v>0.3451059441718311</v>
+        <v>0.3670221779299972</v>
       </c>
       <c r="BS2">
-        <v>0.3334158902648915</v>
+        <v>0.3463833796322772</v>
       </c>
       <c r="BT2">
-        <v>0.3334113235869816</v>
+        <v>0.3384656414938165</v>
       </c>
       <c r="BU2">
-        <v>8.34080447523263</v>
+        <v>0.3351904661783058</v>
       </c>
       <c r="BV2">
-        <v>0.3334158902648915</v>
+        <v>0.3383215054025603</v>
       </c>
       <c r="BW2">
-        <v>0.3522040903137348</v>
+        <v>0.4615023107566681</v>
       </c>
       <c r="BX2">
-        <v>0.3334158902648915</v>
+        <v>0.3395789934524668</v>
       </c>
       <c r="BY2">
-        <v>0.3334158902648915</v>
+        <v>0.3453705069312714</v>
       </c>
       <c r="BZ2">
-        <v>0.3334158902648915</v>
+        <v>0.3851973794799776</v>
       </c>
       <c r="CA2">
-        <v>0.3430210114626621</v>
+        <v>0.3666477262110498</v>
       </c>
       <c r="CB2">
-        <v>0.3430482417711589</v>
+        <v>0.3360026328427551</v>
       </c>
       <c r="CC2">
-        <v>0.3334158902648915</v>
+        <v>0.3451329448294702</v>
       </c>
       <c r="CD2">
-        <v>0.3362336971410548</v>
+        <v>27.66340979652769</v>
       </c>
       <c r="CE2">
-        <v>0.3334158902648915</v>
+        <v>7.134962808727662</v>
       </c>
       <c r="CF2">
-        <v>0.3334158902648915</v>
+        <v>1.700652339173474</v>
       </c>
       <c r="CG2">
-        <v>0.3334158902648915</v>
+        <v>0.348733094494522</v>
       </c>
       <c r="CH2">
-        <v>0.3547994830058931</v>
+        <v>0.3684824524344757</v>
       </c>
       <c r="CI2">
-        <v>0.3334158902648915</v>
+        <v>5.209868124681382</v>
       </c>
       <c r="CJ2">
-        <v>0.3422184881566634</v>
+        <v>1.936654648147486</v>
       </c>
       <c r="CK2">
-        <v>0.3367553461166954</v>
+        <v>0.3960941811554206</v>
       </c>
       <c r="CL2">
-        <v>0.3336690848408583</v>
+        <v>0.3610940229540545</v>
       </c>
       <c r="CM2">
-        <v>0.3334158902648915</v>
+        <v>0.547129080585895</v>
       </c>
       <c r="CN2">
-        <v>0.333879179661999</v>
+        <v>0.3381438760528391</v>
       </c>
       <c r="CO2">
-        <v>0.3389892337293221</v>
+        <v>1.380626683106052</v>
       </c>
       <c r="CP2">
-        <v>0.3334113235869816</v>
+        <v>0.335021283732777</v>
       </c>
       <c r="CQ2">
-        <v>0.3585880099998407</v>
+        <v>2.037869916005326</v>
       </c>
       <c r="CR2">
-        <v>0.3334113235869816</v>
+        <v>9.859810073469578</v>
       </c>
       <c r="CS2">
-        <v>0.3334158902648915</v>
+        <v>18.15897018562937</v>
       </c>
       <c r="CT2">
-        <v>0.3334158902648915</v>
+        <v>5.16940363869329</v>
       </c>
       <c r="CU2">
-        <v>0.3529747078946809</v>
+        <v>69.19395995667537</v>
       </c>
       <c r="CV2">
-        <v>0.3491443715317495</v>
+        <v>0.3666394780089755</v>
       </c>
       <c r="CW2">
-        <v>0.3334089416946133</v>
+        <v>22.59594263372208</v>
       </c>
       <c r="CX2">
-        <v>0.3334158902648915</v>
+        <v>0.3368946435506128</v>
       </c>
       <c r="CY2">
-        <v>0.3334158902648915</v>
+        <v>0.3413797165858394</v>
       </c>
       <c r="CZ2">
-        <v>0.3334158902648915</v>
+        <v>0.3435874916461027</v>
       </c>
       <c r="DA2">
-        <v>0.3334158902648915</v>
+        <v>2.057097526705427</v>
       </c>
       <c r="DB2">
-        <v>0.3335521999606854</v>
+        <v>7.615548824787331</v>
       </c>
       <c r="DC2">
-        <v>0.3334158902648915</v>
+        <v>4.569240990783944</v>
       </c>
       <c r="DD2">
-        <v>0.3334158902648915</v>
+        <v>0.3865369024528804</v>
       </c>
       <c r="DE2">
-        <v>0.3334158902648915</v>
+        <v>0.3917376005973952</v>
       </c>
       <c r="DF2">
-        <v>0.3334158902648915</v>
+        <v>0.3451770005254268</v>
       </c>
       <c r="DG2">
-        <v>0.3335920035597835</v>
+        <v>0.3370601627314155</v>
       </c>
       <c r="DH2">
-        <v>0.3334158902648915</v>
+        <v>6.86750561164279</v>
       </c>
       <c r="DI2">
-        <v>0.3334158902648915</v>
+        <v>0.3451176888657454</v>
       </c>
       <c r="DJ2">
-        <v>0.3334158902648915</v>
+        <v>0.3376961989179575</v>
       </c>
       <c r="DK2">
-        <v>0.3334158902648915</v>
+        <v>0.3344559659507977</v>
       </c>
       <c r="DL2">
-        <v>0.3334113235869816</v>
+        <v>26.91169457479672</v>
       </c>
       <c r="DM2">
-        <v>0.3334158902648915</v>
+        <v>3.147914429757915</v>
       </c>
       <c r="DN2">
-        <v>0.3334542707608038</v>
+        <v>0.3411199944423142</v>
       </c>
       <c r="DO2">
-        <v>1.320155939243272</v>
+        <v>25.93422262820214</v>
       </c>
       <c r="DP2">
-        <v>0.3334158902648915</v>
+        <v>2.522207191101161</v>
       </c>
       <c r="DQ2">
-        <v>0.3334158902648915</v>
+        <v>170.124858382641</v>
       </c>
       <c r="DR2">
-        <v>0.3334158902648915</v>
+        <v>0.3478470411981274</v>
       </c>
       <c r="DS2">
-        <v>11.20186113424344</v>
+        <v>0.4250361474124016</v>
       </c>
       <c r="DT2">
-        <v>2870.020851396098</v>
+        <v>0.3681679523042404</v>
       </c>
       <c r="DU2">
-        <v>0.3874896640073344</v>
+        <v>2.062685504785357</v>
       </c>
       <c r="DV2">
-        <v>0.3334086069964469</v>
+        <v>0.3345053628842506</v>
       </c>
       <c r="DW2">
-        <v>0.3334158902648915</v>
+        <v>0.3423494603725963</v>
       </c>
       <c r="DX2">
-        <v>0.3334158902648915</v>
+        <v>0.3519454237235592</v>
       </c>
       <c r="DY2">
-        <v>0.3353423342436371</v>
+        <v>1.679262349546019</v>
       </c>
       <c r="DZ2">
-        <v>0.3334158902648915</v>
+        <v>2.012645678007409</v>
       </c>
       <c r="EA2">
-        <v>0.3334158902648915</v>
+        <v>0.3397456505438804</v>
       </c>
       <c r="EB2">
-        <v>0.3449984417308309</v>
+        <v>0.3605567538114358</v>
       </c>
       <c r="EC2">
-        <v>0.3511491711704716</v>
+        <v>31.75149496281319</v>
       </c>
       <c r="ED2">
-        <v>0.3334158902648915</v>
+        <v>0.3566688086425754</v>
       </c>
       <c r="EE2">
-        <v>0.3334158902648915</v>
+        <v>6.54019690194263</v>
       </c>
       <c r="EF2">
-        <v>0.3428549826817557</v>
+        <v>0.4004828826045387</v>
       </c>
       <c r="EG2">
-        <v>0.3334134216879502</v>
+        <v>0.3369792884859834</v>
       </c>
       <c r="EH2">
-        <v>0.3334158902648915</v>
+        <v>0.3393818634175155</v>
       </c>
       <c r="EI2">
-        <v>0.3334721902291919</v>
+        <v>0.3349377016238556</v>
       </c>
       <c r="EJ2">
-        <v>0.3467873333571048</v>
+        <v>52.82947928701455</v>
       </c>
       <c r="EK2">
-        <v>0.3568064108321172</v>
+        <v>0.3530169296125268</v>
       </c>
       <c r="EL2">
-        <v>0.3343118063851504</v>
+        <v>36.81700234584012</v>
       </c>
       <c r="EM2">
-        <v>0.3334158902648915</v>
+        <v>0.3338619829964875</v>
       </c>
       <c r="EN2">
-        <v>0.3377346009257776</v>
+        <v>4.494109290616226</v>
       </c>
       <c r="EO2">
-        <v>0.3334158902648915</v>
+        <v>0.3357385915288073</v>
       </c>
       <c r="EP2">
-        <v>0.3334158902648915</v>
+        <v>3.266943836333353</v>
       </c>
       <c r="EQ2">
-        <v>10718.2112353871</v>
+        <v>0.3413805756951553</v>
       </c>
       <c r="ER2">
-        <v>0.3334158902648915</v>
+        <v>0.3448218859446853</v>
       </c>
       <c r="ES2">
-        <v>0.3333979560636363</v>
+        <v>0.3446221288592565</v>
       </c>
       <c r="ET2">
-        <v>0.3334158902648915</v>
+        <v>0.348960559437446</v>
       </c>
       <c r="EU2">
-        <v>0.3334158902648915</v>
+        <v>0.3372305991798142</v>
       </c>
       <c r="EV2">
-        <v>0.3334158902648915</v>
+        <v>0.3374070691561992</v>
       </c>
       <c r="EW2">
-        <v>0.3334158902648915</v>
+        <v>2.109388508094615</v>
       </c>
       <c r="EX2">
-        <v>0.3335657835400528</v>
+        <v>4.922023239057457</v>
       </c>
       <c r="EY2">
-        <v>0.345672033098235</v>
+        <v>1.158040159218125</v>
       </c>
       <c r="EZ2">
-        <v>0.3348798529790484</v>
+        <v>0.6724337730744341</v>
       </c>
       <c r="FA2">
-        <v>0.333406997473444</v>
+        <v>0.3541520151205709</v>
       </c>
       <c r="FB2">
-        <v>0.3334113235869816</v>
+        <v>0.3340614603290328</v>
       </c>
       <c r="FC2">
-        <v>0.3334113235869816</v>
+        <v>56.09133841533028</v>
       </c>
       <c r="FD2">
-        <v>0.3334158902648915</v>
+        <v>43.57444348762782</v>
       </c>
       <c r="FE2">
-        <v>0.3334158902648915</v>
+        <v>0.3362933924365026</v>
       </c>
       <c r="FF2">
-        <v>0.3404665524767771</v>
+        <v>0.3398259531972783</v>
       </c>
       <c r="FG2">
-        <v>0.3334158902648915</v>
+        <v>0.3343567783452716</v>
       </c>
       <c r="FH2">
-        <v>0.3334113235869816</v>
+        <v>2.325134406766091</v>
       </c>
       <c r="FI2">
-        <v>0.341274579123798</v>
+        <v>0.3597539637580966</v>
       </c>
       <c r="FJ2">
-        <v>0.3423697801412824</v>
+        <v>0.3407901642122799</v>
       </c>
       <c r="FK2">
-        <v>0.3339082508020438</v>
+        <v>4.648646077690792</v>
       </c>
       <c r="FL2">
-        <v>0.3334280836620708</v>
+        <v>0.6413543578361354</v>
       </c>
       <c r="FM2">
-        <v>0.3334158902648915</v>
+        <v>10.64229191714683</v>
       </c>
       <c r="FN2">
-        <v>0.3334158902648915</v>
+        <v>24.11346685161037</v>
       </c>
       <c r="FO2">
-        <v>0.3334158902648915</v>
+        <v>6.860362566269499</v>
       </c>
       <c r="FP2">
-        <v>0.3795624997246003</v>
+        <v>0.3399692057151342</v>
       </c>
       <c r="FQ2">
-        <v>0.3334158902648915</v>
+        <v>0.9662140307869314</v>
       </c>
       <c r="FR2">
-        <v>0.3334158902648915</v>
+        <v>9.537445935568392</v>
       </c>
       <c r="FS2">
-        <v>0.3334095407039627</v>
+        <v>9.144715904395332</v>
       </c>
       <c r="FT2">
-        <v>0.3335251437784584</v>
+        <v>0.4459575877047724</v>
       </c>
       <c r="FU2">
-        <v>0.3334158902648915</v>
+        <v>0.3366774596205609</v>
       </c>
       <c r="FV2">
-        <v>0.3334113235869816</v>
+        <v>4.340709224123764</v>
       </c>
       <c r="FW2">
-        <v>0.3334113235869816</v>
+        <v>3.899696337978068</v>
       </c>
       <c r="FX2">
-        <v>0.3334113235869816</v>
+        <v>0.3358038337252447</v>
       </c>
       <c r="FY2">
-        <v>0.373457719169285</v>
+        <v>0.3403744929040136</v>
       </c>
       <c r="FZ2">
-        <v>0.3334158902648915</v>
+        <v>0.3366730610050591</v>
       </c>
       <c r="GA2">
-        <v>0.3334158902648915</v>
+        <v>0.334055893191915</v>
       </c>
       <c r="GB2">
-        <v>0.3334158902648915</v>
+        <v>0.3360849139948573</v>
       </c>
       <c r="GC2">
-        <v>0.3334158902648915</v>
+        <v>18.72230518916264</v>
       </c>
       <c r="GD2">
-        <v>0.3334158902648915</v>
+        <v>2.263576485862022</v>
       </c>
       <c r="GE2">
-        <v>217.1151620310783</v>
+        <v>0.3470605808921015</v>
       </c>
       <c r="GF2">
-        <v>0.3356584209400869</v>
+        <v>3.277677875009348</v>
       </c>
       <c r="GG2">
-        <v>0.3334158902648915</v>
+        <v>4.227002565905118</v>
       </c>
       <c r="GH2">
-        <v>0.3334533518991126</v>
+        <v>6.025323836566883</v>
       </c>
       <c r="GI2">
-        <v>0.3334158902648915</v>
+        <v>1.657813125757506</v>
       </c>
       <c r="GJ2">
-        <v>0.3334158902648915</v>
+        <v>11.50292435379559</v>
       </c>
       <c r="GK2">
-        <v>0.3334158902648915</v>
+        <v>0.340170237736551</v>
       </c>
       <c r="GL2">
-        <v>0.3334158902648915</v>
+        <v>0.3372684036452046</v>
       </c>
       <c r="GM2">
-        <v>0.3334158902648915</v>
+        <v>48.95468022325532</v>
       </c>
       <c r="GN2">
-        <v>0.3334158902648915</v>
+        <v>1.004808464424066</v>
       </c>
       <c r="GO2">
-        <v>0.3334158902648915</v>
+        <v>3.971903505548953</v>
       </c>
       <c r="GP2">
-        <v>0.3334158902648915</v>
+        <v>34.57184473670112</v>
       </c>
       <c r="GQ2">
-        <v>0.3334158902648915</v>
+        <v>0.4098031170447526</v>
       </c>
       <c r="GR2">
-        <v>0.3334158902648915</v>
+        <v>0.3562079829126779</v>
       </c>
       <c r="GS2">
-        <v>0.3334158902648915</v>
+        <v>0.7119529387900039</v>
+      </c>
+      <c r="GT2">
+        <v>0.336011079886516</v>
+      </c>
+      <c r="GU2">
+        <v>0.3743115177747343</v>
+      </c>
+      <c r="GV2">
+        <v>0.334140307206398</v>
+      </c>
+      <c r="GW2">
+        <v>4.033534435267375</v>
+      </c>
+      <c r="GX2">
+        <v>0.3367005479376384</v>
+      </c>
+      <c r="GY2">
+        <v>8.679184130579531</v>
+      </c>
+      <c r="GZ2">
+        <v>41.24357309872624</v>
+      </c>
+      <c r="HA2">
+        <v>0.3340746673613443</v>
+      </c>
+      <c r="HB2">
+        <v>0.4126636386279307</v>
+      </c>
+      <c r="HC2">
+        <v>75.15947577324937</v>
+      </c>
+      <c r="HD2">
+        <v>0.3451546603854487</v>
+      </c>
+      <c r="HE2">
+        <v>0.333937863595605</v>
+      </c>
+      <c r="HF2">
+        <v>2.397643764734955</v>
+      </c>
+      <c r="HG2">
+        <v>0.3528602219805534</v>
+      </c>
+      <c r="HH2">
+        <v>0.4050967774749989</v>
+      </c>
+      <c r="HI2">
+        <v>0.3911971186019316</v>
+      </c>
+      <c r="HJ2">
+        <v>0.3675705973563059</v>
+      </c>
+      <c r="HK2">
+        <v>26.95935287231917</v>
+      </c>
+      <c r="HL2">
+        <v>0.3530821603800306</v>
+      </c>
+      <c r="HM2">
+        <v>126.6833169034465</v>
+      </c>
+      <c r="HN2">
+        <v>0.3410314368042554</v>
+      </c>
+      <c r="HO2">
+        <v>0.3349851465200269</v>
+      </c>
+      <c r="HP2">
+        <v>0.3381634589508543</v>
+      </c>
+      <c r="HQ2">
+        <v>32.71052607435005</v>
+      </c>
+      <c r="HR2">
+        <v>0.7812763321803349</v>
+      </c>
+      <c r="HS2">
+        <v>0.395738044447355</v>
+      </c>
+      <c r="HT2">
+        <v>0.8737232780622068</v>
+      </c>
+      <c r="HU2">
+        <v>0.3578286700545626</v>
+      </c>
+      <c r="HV2">
+        <v>12.16711672331239</v>
+      </c>
+      <c r="HW2">
+        <v>2.337593930483605</v>
+      </c>
+      <c r="HX2">
+        <v>0.3736734536085642</v>
+      </c>
+      <c r="HY2">
+        <v>5.138113121728916</v>
+      </c>
+      <c r="HZ2">
+        <v>51.44134795466313</v>
+      </c>
+      <c r="IA2">
+        <v>2.998537051939369</v>
+      </c>
+      <c r="IB2">
+        <v>5.480629565867579</v>
+      </c>
+      <c r="IC2">
+        <v>0.3582340690262962</v>
+      </c>
+      <c r="ID2">
+        <v>0.3545644923392973</v>
+      </c>
+      <c r="IE2">
+        <v>1.838789667708386</v>
+      </c>
+      <c r="IF2">
+        <v>7.755048827303503</v>
+      </c>
+      <c r="IG2">
+        <v>0.3528325723689797</v>
+      </c>
+      <c r="IH2">
+        <v>0.3387198324292149</v>
+      </c>
+      <c r="II2">
+        <v>14.34614682200994</v>
+      </c>
+      <c r="IJ2">
+        <v>0.3399277465567794</v>
+      </c>
+      <c r="IK2">
+        <v>4.992610392657247</v>
+      </c>
+      <c r="IL2">
+        <v>19.67939633505526</v>
+      </c>
+      <c r="IM2">
+        <v>0.3968123744131361</v>
+      </c>
+      <c r="IN2">
+        <v>0.3668204885833832</v>
+      </c>
+      <c r="IO2">
+        <v>96.81950962415706</v>
+      </c>
+      <c r="IP2">
+        <v>0.3396181585409712</v>
+      </c>
+      <c r="IQ2">
+        <v>0.3570346858849768</v>
+      </c>
+      <c r="IR2">
+        <v>0.3341252582993103</v>
+      </c>
+      <c r="IS2">
+        <v>0.3386786687341461</v>
+      </c>
+      <c r="IT2">
+        <v>0.4419814331392858</v>
+      </c>
+      <c r="IU2">
+        <v>7.598195297717535</v>
+      </c>
+      <c r="IV2">
+        <v>36.21727447949241</v>
+      </c>
+      <c r="IW2">
+        <v>0.4372303973633818</v>
+      </c>
+      <c r="IX2">
+        <v>0.5384534050938357</v>
+      </c>
+      <c r="IY2">
+        <v>0.34024083088103</v>
+      </c>
+      <c r="IZ2">
+        <v>0.3480607897821288</v>
+      </c>
+      <c r="JA2">
+        <v>0.3345320797821106</v>
+      </c>
+      <c r="JB2">
+        <v>3.044078555026488</v>
+      </c>
+      <c r="JC2">
+        <v>2.900716776714543</v>
+      </c>
+      <c r="JD2">
+        <v>0.3494999908500997</v>
+      </c>
+      <c r="JE2">
+        <v>7.226075068444951</v>
+      </c>
+      <c r="JF2">
+        <v>11.87296563141763</v>
+      </c>
+      <c r="JG2">
+        <v>4.201317818189743</v>
+      </c>
+      <c r="JH2">
+        <v>4.957380087634716</v>
+      </c>
+      <c r="JI2">
+        <v>13.8264729031449</v>
+      </c>
+      <c r="JJ2">
+        <v>20.18252362465163</v>
+      </c>
+      <c r="JK2">
+        <v>0.3403868465029076</v>
+      </c>
+      <c r="JL2">
+        <v>0.3530845443630247</v>
+      </c>
+      <c r="JM2">
+        <v>1.69017808126903</v>
+      </c>
+      <c r="JN2">
+        <v>6.916096453532756</v>
+      </c>
+      <c r="JO2">
+        <v>0.3428553934801818</v>
+      </c>
+      <c r="JP2">
+        <v>0.3471454512039926</v>
+      </c>
+      <c r="JQ2">
+        <v>0.3400030708866547</v>
+      </c>
+      <c r="JR2">
+        <v>0.408460229955281</v>
+      </c>
+      <c r="JS2">
+        <v>0.3635377911051872</v>
+      </c>
+      <c r="JT2">
+        <v>12.71663624479371</v>
+      </c>
+      <c r="JU2">
+        <v>2.754281507141485</v>
+      </c>
+      <c r="JV2">
+        <v>175.8526935080555</v>
+      </c>
+      <c r="JW2">
+        <v>2.888535828929446</v>
+      </c>
+      <c r="JX2">
+        <v>121.3847170851225</v>
+      </c>
+      <c r="JY2">
+        <v>19.4271734614828</v>
+      </c>
+      <c r="JZ2">
+        <v>28.85801664159043</v>
+      </c>
+      <c r="KA2">
+        <v>139.8939494535921</v>
+      </c>
+      <c r="KB2">
+        <v>3.022706951748</v>
+      </c>
+      <c r="KC2">
+        <v>89.94122623331334</v>
+      </c>
+      <c r="KD2">
+        <v>17.08662925534912</v>
+      </c>
+      <c r="KE2">
+        <v>1.967440784194338</v>
+      </c>
+      <c r="KF2">
+        <v>1.451690883174187</v>
+      </c>
+      <c r="KG2">
+        <v>4.681593341578201</v>
+      </c>
+      <c r="KH2">
+        <v>3.155370354529829</v>
+      </c>
+      <c r="KI2">
+        <v>14.48763484041292</v>
+      </c>
+      <c r="KJ2">
+        <v>17.3908936758157</v>
+      </c>
+      <c r="KK2">
+        <v>0.3401073558067795</v>
+      </c>
+      <c r="KL2">
+        <v>0.449212444544126</v>
+      </c>
+      <c r="KM2">
+        <v>3.29802811913529</v>
+      </c>
+      <c r="KN2">
+        <v>10.14378518894498</v>
+      </c>
+      <c r="KO2">
+        <v>24.87274727800893</v>
+      </c>
+      <c r="KP2">
+        <v>10.88419800661245</v>
+      </c>
+      <c r="KQ2">
+        <v>0.3405653853689114</v>
+      </c>
+      <c r="KR2">
+        <v>0.3432957888977366</v>
+      </c>
+      <c r="KS2">
+        <v>75.79042459181807</v>
+      </c>
+      <c r="KT2">
+        <v>1.544779405346737</v>
+      </c>
+      <c r="KU2">
+        <v>20.6602684565135</v>
+      </c>
+      <c r="KV2">
+        <v>0.3650627500032256</v>
+      </c>
+      <c r="KW2">
+        <v>8.606713861718616</v>
+      </c>
+      <c r="KX2">
+        <v>0.6126224010570169</v>
+      </c>
+      <c r="KY2">
+        <v>4.587458229754372</v>
+      </c>
+      <c r="KZ2">
+        <v>0.4081787347441944</v>
+      </c>
+      <c r="LA2">
+        <v>0.3339327800734764</v>
+      </c>
+      <c r="LB2">
+        <v>0.4030328941873361</v>
+      </c>
+      <c r="LC2">
+        <v>8.461238384119348</v>
+      </c>
+      <c r="LD2">
+        <v>0.3724397642728496</v>
+      </c>
+      <c r="LE2">
+        <v>0.3573623968170932</v>
+      </c>
+      <c r="LF2">
+        <v>0.3618634566100301</v>
+      </c>
+      <c r="LG2">
+        <v>0.3759480632623289</v>
+      </c>
+      <c r="LH2">
+        <v>0.3695342307592837</v>
+      </c>
+      <c r="LI2">
+        <v>0.3399830734499774</v>
+      </c>
+      <c r="LJ2">
+        <v>7.416758332906618</v>
+      </c>
+      <c r="LK2">
+        <v>0.3497804503170907</v>
+      </c>
+      <c r="LL2">
+        <v>33.10094027457128</v>
+      </c>
+      <c r="LM2">
+        <v>7.419489838104976</v>
+      </c>
+      <c r="LN2">
+        <v>0.3341730559178028</v>
+      </c>
+      <c r="LO2">
+        <v>0.3342654915892851</v>
+      </c>
+      <c r="LP2">
+        <v>0.3599603429694236</v>
+      </c>
+      <c r="LQ2">
+        <v>0.3341979326060014</v>
+      </c>
+      <c r="LR2">
+        <v>13.53480524500752</v>
+      </c>
+      <c r="LS2">
+        <v>12.9763789539659</v>
+      </c>
+      <c r="LT2">
+        <v>14.31769197171157</v>
+      </c>
+      <c r="LU2">
+        <v>8.645799242064827</v>
+      </c>
+      <c r="LV2">
+        <v>48.80965161865561</v>
+      </c>
+      <c r="LW2">
+        <v>1.874802807821156</v>
+      </c>
+      <c r="LX2">
+        <v>1.930138088850207</v>
+      </c>
+      <c r="LY2">
+        <v>0.3833410567181782</v>
+      </c>
+      <c r="LZ2">
+        <v>19.24448025896248</v>
+      </c>
+      <c r="MA2">
+        <v>11.72822223843817</v>
+      </c>
+      <c r="MB2">
+        <v>0.3384874025936044</v>
+      </c>
+      <c r="MC2">
+        <v>2.808813631609804</v>
+      </c>
+      <c r="MD2">
+        <v>4.577689989987855</v>
+      </c>
+      <c r="ME2">
+        <v>0.4105854380402795</v>
+      </c>
+      <c r="MF2">
+        <v>0.3445744161761352</v>
+      </c>
+      <c r="MG2">
+        <v>0.4353432507393052</v>
+      </c>
+      <c r="MH2">
+        <v>0.4097210301757047</v>
+      </c>
+      <c r="MI2">
+        <v>34.67641274755965</v>
+      </c>
+      <c r="MJ2">
+        <v>0.3369182086639939</v>
+      </c>
+      <c r="MK2">
+        <v>7.291329057658979</v>
+      </c>
+      <c r="ML2">
+        <v>9.175593192535329</v>
+      </c>
+      <c r="MM2">
+        <v>2.875129731523796</v>
+      </c>
+      <c r="MN2">
+        <v>0.334846645508962</v>
+      </c>
+      <c r="MO2">
+        <v>0.3384500136080072</v>
+      </c>
+      <c r="MP2">
+        <v>5.811238955312086</v>
+      </c>
+      <c r="MQ2">
+        <v>0.4328697018324741</v>
+      </c>
+      <c r="MR2">
+        <v>0.3455665533998148</v>
+      </c>
+      <c r="MS2">
+        <v>8.503465390214835</v>
+      </c>
+      <c r="MT2">
+        <v>0.3404052846256675</v>
+      </c>
+      <c r="MU2">
+        <v>0.3706000278254645</v>
+      </c>
+      <c r="MV2">
+        <v>0.4235102788834605</v>
+      </c>
+      <c r="MW2">
+        <v>0.3397808105701711</v>
+      </c>
+      <c r="MX2">
+        <v>0.456204076151539</v>
+      </c>
+      <c r="MY2">
+        <v>0.341473779517405</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3362147060721882</v>
+      </c>
+      <c r="NA2">
+        <v>0.3364727462440643</v>
+      </c>
+      <c r="NB2">
+        <v>0.3383631341246744</v>
+      </c>
+      <c r="NC2">
+        <v>0.3546087111857497</v>
+      </c>
+      <c r="ND2">
+        <v>26.82491958445355</v>
+      </c>
+      <c r="NE2">
+        <v>5.72353724356744</v>
+      </c>
+      <c r="NF2">
+        <v>0.3407621566865557</v>
+      </c>
+      <c r="NG2">
+        <v>0.3491313777038513</v>
+      </c>
+      <c r="NH2">
+        <v>3.55811023957962</v>
+      </c>
+      <c r="NI2">
+        <v>0.4571566071688941</v>
+      </c>
+      <c r="NJ2">
+        <v>0.3372869592145553</v>
+      </c>
+      <c r="NK2">
+        <v>0.3376391460960048</v>
+      </c>
+      <c r="NL2">
+        <v>20.01638603224508</v>
+      </c>
+      <c r="NM2">
+        <v>0.461875118175776</v>
+      </c>
+      <c r="NN2">
+        <v>0.3513923028595252</v>
+      </c>
+      <c r="NO2">
+        <v>15.15333057393426</v>
+      </c>
+      <c r="NP2">
+        <v>0.3348891624164569</v>
+      </c>
+      <c r="NQ2">
+        <v>0.3572995989617843</v>
+      </c>
+      <c r="NR2">
+        <v>1.40548474406221</v>
+      </c>
+      <c r="NS2">
+        <v>22.03592210879619</v>
+      </c>
+      <c r="NT2">
+        <v>2.550149861720694</v>
+      </c>
+      <c r="NU2">
+        <v>21.93246336657967</v>
+      </c>
+      <c r="NV2">
+        <v>0.365950093050769</v>
+      </c>
+      <c r="NW2">
+        <v>0.3354490876408402</v>
+      </c>
+      <c r="NX2">
+        <v>8.064387674153943</v>
+      </c>
+      <c r="NY2">
+        <v>0.3340218044431612</v>
+      </c>
+      <c r="NZ2">
+        <v>0.3356416153826607</v>
+      </c>
+      <c r="OA2">
+        <v>0.3387890015047823</v>
+      </c>
+      <c r="OB2">
+        <v>0.3685433037241262</v>
+      </c>
+      <c r="OC2">
+        <v>0.3520484603352668</v>
+      </c>
+      <c r="OD2">
+        <v>44.35429459945666</v>
+      </c>
+      <c r="OE2">
+        <v>30.81537939445053</v>
+      </c>
+      <c r="OF2">
+        <v>5.036005463227561</v>
+      </c>
+      <c r="OG2">
+        <v>3.202174817315191</v>
+      </c>
+      <c r="OH2">
+        <v>0.3522319168291357</v>
+      </c>
+      <c r="OI2">
+        <v>0.341132234114239</v>
+      </c>
+      <c r="OJ2">
+        <v>0.3455561710636016</v>
+      </c>
+      <c r="OK2">
+        <v>26.0637133684469</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>8.312352629285547</v>
+        <v>3.598003294550889</v>
       </c>
       <c r="C3">
-        <v>0.3548723102051322</v>
+        <v>8.188890789120256</v>
       </c>
       <c r="D3">
-        <v>307.328230412262</v>
+        <v>0.957263730724693</v>
       </c>
       <c r="E3">
-        <v>23.32864119507571</v>
+        <v>7.865218920480807</v>
       </c>
       <c r="F3">
-        <v>109.3278159159183</v>
+        <v>0.3576403881367848</v>
       </c>
       <c r="G3">
-        <v>72.69403160418936</v>
+        <v>0.3383663388094196</v>
       </c>
       <c r="H3">
-        <v>57.33094676341459</v>
+        <v>33.31320247755204</v>
       </c>
       <c r="I3">
-        <v>848.2748626237158</v>
+        <v>3.367375377358212</v>
       </c>
       <c r="J3">
-        <v>4.333257090052145</v>
+        <v>0.3614327532270847</v>
       </c>
       <c r="K3">
-        <v>2.33325433849574</v>
+        <v>0.3412750243720976</v>
       </c>
       <c r="L3">
-        <v>0.35805913223886</v>
+        <v>0.3383096962489422</v>
       </c>
       <c r="M3">
-        <v>3.311614633346692</v>
+        <v>0.3386069505013808</v>
       </c>
       <c r="N3">
-        <v>312.2725111780061</v>
+        <v>0.4036830162313035</v>
       </c>
       <c r="O3">
-        <v>37.30241500388266</v>
+        <v>0.3352062557605412</v>
       </c>
       <c r="P3">
-        <v>130.3142604114663</v>
+        <v>0.3502935185117898</v>
       </c>
       <c r="Q3">
-        <v>130.2820738500211</v>
+        <v>0.445814599142989</v>
       </c>
       <c r="R3">
-        <v>93.24886150967724</v>
+        <v>0.3447455693305813</v>
       </c>
       <c r="S3">
-        <v>0.3585196811313206</v>
+        <v>9.442783335058781</v>
       </c>
       <c r="T3">
-        <v>79.32399405877418</v>
+        <v>0.4037725772500533</v>
       </c>
       <c r="U3">
-        <v>13.32680332973011</v>
+        <v>0.3552212264162807</v>
       </c>
       <c r="V3">
-        <v>3.333256144326449</v>
+        <v>0.3374926703182548</v>
       </c>
       <c r="W3">
-        <v>58.28405286525846</v>
+        <v>8.69314765310115</v>
       </c>
       <c r="X3">
-        <v>45.30277741712953</v>
+        <v>73.46327927227969</v>
       </c>
       <c r="Y3">
-        <v>40.29720797691323</v>
+        <v>25.33190869405948</v>
       </c>
       <c r="Z3">
-        <v>13.30964250073494</v>
+        <v>0.4214157612613768</v>
       </c>
       <c r="AA3">
-        <v>166.183031996659</v>
+        <v>9.316455315160397</v>
       </c>
       <c r="AB3">
-        <v>24.32018567937865</v>
+        <v>5.480374628511968</v>
       </c>
       <c r="AC3">
-        <v>98.30067092329193</v>
+        <v>3.960702702633035</v>
       </c>
       <c r="AD3">
-        <v>25.66667468735908</v>
+        <v>1.521161125828622</v>
       </c>
       <c r="AE3">
-        <v>527.6163682856131</v>
+        <v>1.985174214198454</v>
       </c>
       <c r="AF3">
-        <v>1.333249713043318</v>
+        <v>49.90898997365966</v>
       </c>
       <c r="AG3">
-        <v>16.3317871136383</v>
+        <v>0.3610995431793677</v>
       </c>
       <c r="AH3">
-        <v>14.33325919669494</v>
+        <v>0.528964377157737</v>
       </c>
       <c r="AI3">
-        <v>1.333249713043318</v>
+        <v>0.3397775991513471</v>
       </c>
       <c r="AJ3">
-        <v>119.3220817644299</v>
+        <v>0.3420102514898296</v>
       </c>
       <c r="AK3">
-        <v>204.3191705370439</v>
+        <v>185.2398974748741</v>
       </c>
       <c r="AL3">
-        <v>8.281396964984967</v>
+        <v>4.089267111016547</v>
       </c>
       <c r="AM3">
-        <v>5.333067505223974</v>
+        <v>0.4371554004316314</v>
       </c>
       <c r="AN3">
-        <v>3096.267061848227</v>
+        <v>32.95083735598254</v>
       </c>
       <c r="AO3">
-        <v>78.26195150977239</v>
+        <v>0.4578915058939166</v>
       </c>
       <c r="AP3">
-        <v>1.333249713043318</v>
+        <v>0.359688865220021</v>
       </c>
       <c r="AQ3">
-        <v>1.333249713043318</v>
+        <v>0.3588089082882082</v>
       </c>
       <c r="AR3">
-        <v>2.33325433849574</v>
+        <v>0.3435339965985184</v>
       </c>
       <c r="AS3">
-        <v>4.333257090052145</v>
+        <v>7.690397801884575</v>
       </c>
       <c r="AT3">
-        <v>1.333249713043318</v>
+        <v>28.22456356813557</v>
       </c>
       <c r="AU3">
-        <v>1.333249713043318</v>
+        <v>0.433511379085356</v>
       </c>
       <c r="AV3">
-        <v>59.25259641144443</v>
+        <v>20.26240023595926</v>
       </c>
       <c r="AW3">
-        <v>0.389036828505849</v>
+        <v>0.3371594456664062</v>
       </c>
       <c r="AX3">
-        <v>1.333249713043318</v>
+        <v>0.4698910406221995</v>
       </c>
       <c r="AY3">
-        <v>1.333249713043318</v>
+        <v>7.123506302791301</v>
       </c>
       <c r="AZ3">
-        <v>1.333249713043318</v>
+        <v>19.47307396423432</v>
       </c>
       <c r="BA3">
-        <v>1.333249713043318</v>
+        <v>0.3685727297993553</v>
       </c>
       <c r="BB3">
-        <v>2.33325433849574</v>
+        <v>0.6076432314596766</v>
       </c>
       <c r="BC3">
-        <v>125.3023320974938</v>
+        <v>0.3414677771917062</v>
       </c>
       <c r="BD3">
-        <v>3.333256144326449</v>
+        <v>0.3723529612192968</v>
       </c>
       <c r="BE3">
-        <v>7.325706876575548</v>
+        <v>1.969034718945394</v>
       </c>
       <c r="BF3">
-        <v>1.333249713043318</v>
+        <v>0.3505987007465275</v>
       </c>
       <c r="BG3">
-        <v>1.333249713043318</v>
+        <v>0.3980736885343753</v>
       </c>
       <c r="BH3">
-        <v>2.33325433849574</v>
+        <v>0.3492739265785791</v>
       </c>
       <c r="BI3">
-        <v>42.24819696784981</v>
+        <v>53.49599911035008</v>
       </c>
       <c r="BJ3">
-        <v>354.3408311576151</v>
+        <v>2.621796440864328</v>
       </c>
       <c r="BK3">
-        <v>1.333249713043318</v>
+        <v>0.3564928780837735</v>
       </c>
       <c r="BL3">
-        <v>1.333249713043318</v>
+        <v>50.0154466035419</v>
       </c>
       <c r="BM3">
-        <v>1.333249713043318</v>
+        <v>0.5750936024474202</v>
       </c>
       <c r="BN3">
-        <v>1.333249713043318</v>
+        <v>1.698240132749943</v>
       </c>
       <c r="BO3">
-        <v>1.333249713043318</v>
+        <v>1.447558285633084</v>
       </c>
       <c r="BP3">
-        <v>1.333249713043318</v>
+        <v>0.3699184234172441</v>
       </c>
       <c r="BQ3">
-        <v>3.292888696375186</v>
+        <v>0.3514132373666138</v>
       </c>
       <c r="BR3">
-        <v>10.30381236506012</v>
+        <v>1.173286907962563</v>
       </c>
       <c r="BS3">
-        <v>1.333249713043318</v>
+        <v>1.648522189609812</v>
       </c>
       <c r="BT3">
-        <v>2.33325433849574</v>
+        <v>0.3492424974532557</v>
       </c>
       <c r="BU3">
-        <v>148.1517320638189</v>
+        <v>0.3409870897258236</v>
       </c>
       <c r="BV3">
-        <v>1.333249713043318</v>
+        <v>0.3573404962961299</v>
       </c>
       <c r="BW3">
-        <v>239.2727599155364</v>
+        <v>1.926421952751209</v>
       </c>
       <c r="BX3">
-        <v>1.333249713043318</v>
+        <v>0.4776091490562561</v>
       </c>
       <c r="BY3">
-        <v>1.333249713043318</v>
+        <v>2.724753232799482</v>
       </c>
       <c r="BZ3">
-        <v>1.333249713043318</v>
+        <v>2.021123551135881</v>
       </c>
       <c r="CA3">
-        <v>41.31235647735549</v>
+        <v>1.496976044776085</v>
       </c>
       <c r="CB3">
-        <v>3.319641308193572</v>
+        <v>0.3377434318820843</v>
       </c>
       <c r="CC3">
-        <v>1.333249713043318</v>
+        <v>6.77244088276666</v>
       </c>
       <c r="CD3">
-        <v>33.32205258947445</v>
+        <v>0.3796682686000596</v>
       </c>
       <c r="CE3">
-        <v>1.333249713043318</v>
+        <v>0.3439005646709079</v>
       </c>
       <c r="CF3">
-        <v>1.333249713043318</v>
+        <v>0.3382486415874758</v>
       </c>
       <c r="CG3">
-        <v>1.333249713043318</v>
+        <v>0.3445684161767306</v>
       </c>
       <c r="CH3">
-        <v>21.0901195496763</v>
+        <v>0.662813686364796</v>
       </c>
       <c r="CI3">
-        <v>1.333249713043318</v>
+        <v>2.952572805600922</v>
       </c>
       <c r="CJ3">
-        <v>61.31433808158259</v>
+        <v>0.3840284097287796</v>
       </c>
       <c r="CK3">
-        <v>85.32385977604459</v>
+        <v>6.469403446412292</v>
       </c>
       <c r="CL3">
-        <v>51.33239092037498</v>
+        <v>16.95973960083401</v>
       </c>
       <c r="CM3">
-        <v>1.333249713043318</v>
+        <v>5.595376027813691</v>
       </c>
       <c r="CN3">
-        <v>14.3300942091374</v>
+        <v>0.8145694834342061</v>
       </c>
       <c r="CO3">
-        <v>117.3046546486502</v>
+        <v>0.3344505440913385</v>
       </c>
       <c r="CP3">
-        <v>2.33325433849574</v>
+        <v>0.4138693835213354</v>
       </c>
       <c r="CQ3">
-        <v>9.816482068029588</v>
+        <v>0.3415918490921062</v>
       </c>
       <c r="CR3">
-        <v>2.33325433849574</v>
+        <v>0.3374337771292809</v>
       </c>
       <c r="CS3">
-        <v>1.333249713043318</v>
+        <v>0.3818864573331968</v>
       </c>
       <c r="CT3">
-        <v>1.333249713043318</v>
+        <v>0.408262630210609</v>
       </c>
       <c r="CU3">
-        <v>338.2837799686016</v>
+        <v>0.4594852379370862</v>
       </c>
       <c r="CV3">
-        <v>3.297018266648905</v>
+        <v>0.3807191527200866</v>
       </c>
       <c r="CW3">
-        <v>6.327100570935966</v>
+        <v>0.3485548705445119</v>
       </c>
       <c r="CX3">
-        <v>1.333249713043318</v>
+        <v>0.3649199135161693</v>
       </c>
       <c r="CY3">
-        <v>1.333249713043318</v>
+        <v>60.99274630050338</v>
       </c>
       <c r="CZ3">
-        <v>1.333249713043318</v>
+        <v>16.19554086622042</v>
       </c>
       <c r="DA3">
-        <v>1.333249713043318</v>
+        <v>0.337251869048986</v>
       </c>
       <c r="DB3">
-        <v>39.32527440407902</v>
+        <v>0.3361892777800678</v>
       </c>
       <c r="DC3">
-        <v>1.333249713043318</v>
+        <v>0.3406040972522183</v>
       </c>
       <c r="DD3">
-        <v>1.333249713043318</v>
+        <v>3.710939894186945</v>
       </c>
       <c r="DE3">
-        <v>1.333249713043318</v>
+        <v>17.15954957664256</v>
       </c>
       <c r="DF3">
-        <v>1.333249713043318</v>
+        <v>4.89961666588982</v>
       </c>
       <c r="DG3">
-        <v>21.28775788238165</v>
+        <v>0.3520105078618829</v>
       </c>
       <c r="DH3">
-        <v>1.333249713043318</v>
+        <v>1.10707589117478</v>
       </c>
       <c r="DI3">
-        <v>1.333249713043318</v>
+        <v>0.381290900630423</v>
       </c>
       <c r="DJ3">
-        <v>1.333249713043318</v>
+        <v>0.4438288335977733</v>
       </c>
       <c r="DK3">
-        <v>1.333249713043318</v>
+        <v>0.33593040233268</v>
       </c>
       <c r="DL3">
-        <v>2.33325433849574</v>
+        <v>3.363121494396544</v>
       </c>
       <c r="DM3">
-        <v>1.333249713043318</v>
+        <v>0.3348474748299625</v>
       </c>
       <c r="DN3">
-        <v>5.324385791803459</v>
+        <v>3.65223389662459</v>
       </c>
       <c r="DO3">
-        <v>2.346339245484432</v>
+        <v>0.3360195864152775</v>
       </c>
       <c r="DP3">
-        <v>1.333249713043318</v>
+        <v>0.3463733006279618</v>
       </c>
       <c r="DQ3">
-        <v>1.333249713043318</v>
+        <v>0.3744983107194327</v>
       </c>
       <c r="DR3">
-        <v>1.333249713043318</v>
+        <v>3.641692597743786</v>
       </c>
       <c r="DS3">
-        <v>74.38560772783129</v>
+        <v>4.401686627184029</v>
       </c>
       <c r="DT3">
-        <v>78.3547919677121</v>
+        <v>22.83437271087855</v>
       </c>
       <c r="DU3">
-        <v>760.986833975971</v>
+        <v>0.3406773613537336</v>
       </c>
       <c r="DV3">
-        <v>4.333257090052145</v>
+        <v>0.3531544450353183</v>
       </c>
       <c r="DW3">
-        <v>1.333249713043318</v>
+        <v>0.3554760802956796</v>
       </c>
       <c r="DX3">
-        <v>1.333249713043318</v>
+        <v>41.15205198208926</v>
       </c>
       <c r="DY3">
-        <v>3.32986695675308</v>
+        <v>0.3351343697175597</v>
       </c>
       <c r="DZ3">
-        <v>1.333249713043318</v>
+        <v>0.336140119681106</v>
       </c>
       <c r="EA3">
-        <v>1.333249713043318</v>
+        <v>0.3404457521050638</v>
       </c>
       <c r="EB3">
-        <v>83.289982622669</v>
+        <v>0.4145337827267063</v>
       </c>
       <c r="EC3">
-        <v>5.313006333737136</v>
+        <v>39.95346918177246</v>
       </c>
       <c r="ED3">
-        <v>1.333249713043318</v>
+        <v>0.5396381268459529</v>
       </c>
       <c r="EE3">
-        <v>1.333249713043318</v>
+        <v>0.3851265054159798</v>
       </c>
       <c r="EF3">
-        <v>86.30943084779823</v>
+        <v>45.0022995022827</v>
       </c>
       <c r="EG3">
-        <v>23.33270295110456</v>
+        <v>0.338672120021186</v>
       </c>
       <c r="EH3">
-        <v>1.333249713043318</v>
+        <v>1.656521412924311</v>
       </c>
       <c r="EI3">
-        <v>11.3278766283231</v>
+        <v>0.3364539706725229</v>
       </c>
       <c r="EJ3">
-        <v>39.30414194724472</v>
+        <v>17.40589484923095</v>
       </c>
       <c r="EK3">
-        <v>251.2667094551797</v>
+        <v>0.372044773843035</v>
       </c>
       <c r="EL3">
-        <v>7.328477478407446</v>
+        <v>0.3770189828393524</v>
       </c>
       <c r="EM3">
-        <v>1.333249713043318</v>
+        <v>0.3350902932721377</v>
       </c>
       <c r="EN3">
-        <v>54.31723819590665</v>
+        <v>0.3519069476055687</v>
       </c>
       <c r="EO3">
-        <v>1.333249713043318</v>
+        <v>0.3364201235456284</v>
       </c>
       <c r="EP3">
-        <v>1.333249713043318</v>
+        <v>26.99437028991889</v>
       </c>
       <c r="EQ3">
-        <v>0.4082302080472175</v>
+        <v>0.3433518949879496</v>
       </c>
       <c r="ER3">
-        <v>1.333249713043318</v>
+        <v>0.3389723002689582</v>
       </c>
       <c r="ES3">
-        <v>3.328286228781311</v>
+        <v>2.341097291800215</v>
       </c>
       <c r="ET3">
-        <v>1.333249713043318</v>
+        <v>0.3363992178525018</v>
       </c>
       <c r="EU3">
-        <v>1.333249713043318</v>
+        <v>2.58789207523933</v>
       </c>
       <c r="EV3">
-        <v>1.333249713043318</v>
+        <v>3.223477612566258</v>
       </c>
       <c r="EW3">
-        <v>1.333249713043318</v>
+        <v>0.3360518187900479</v>
       </c>
       <c r="EX3">
-        <v>7.33240281900706</v>
+        <v>0.3837517121774073</v>
       </c>
       <c r="EY3">
-        <v>4.166059155139855</v>
+        <v>3.669319573160416</v>
       </c>
       <c r="EZ3">
-        <v>8.326350783780898</v>
+        <v>0.3395194965792208</v>
       </c>
       <c r="FA3">
-        <v>9.333258720292587</v>
+        <v>4.105976052544629</v>
       </c>
       <c r="FB3">
-        <v>2.33325433849574</v>
+        <v>0.3690275246828473</v>
       </c>
       <c r="FC3">
-        <v>2.33325433849574</v>
+        <v>0.4150470910152321</v>
       </c>
       <c r="FD3">
-        <v>1.333249713043318</v>
+        <v>0.4244109612774243</v>
       </c>
       <c r="FE3">
-        <v>1.333249713043318</v>
+        <v>5.401111029500261</v>
       </c>
       <c r="FF3">
-        <v>13.29269464437258</v>
+        <v>2.545593692993999</v>
       </c>
       <c r="FG3">
-        <v>1.333249713043318</v>
+        <v>0.3358660682586421</v>
       </c>
       <c r="FH3">
-        <v>2.33325433849574</v>
+        <v>0.3357333362485014</v>
       </c>
       <c r="FI3">
-        <v>989.2948961704241</v>
+        <v>0.3831688205112711</v>
       </c>
       <c r="FJ3">
-        <v>92.29221378128048</v>
+        <v>13.68570185291318</v>
       </c>
       <c r="FK3">
-        <v>6.307810484561529</v>
+        <v>0.3348955961370689</v>
       </c>
       <c r="FL3">
-        <v>16.32759503551437</v>
+        <v>0.4140763990514314</v>
       </c>
       <c r="FM3">
-        <v>1.333249713043318</v>
+        <v>0.5106052881860379</v>
       </c>
       <c r="FN3">
-        <v>1.333249713043318</v>
+        <v>0.5677079325096521</v>
       </c>
       <c r="FO3">
-        <v>1.333249713043318</v>
+        <v>0.9082336591485649</v>
       </c>
       <c r="FP3">
-        <v>32.2758801519338</v>
+        <v>0.4117924508194222</v>
       </c>
       <c r="FQ3">
-        <v>1.333249713043318</v>
+        <v>1.342251003713347</v>
       </c>
       <c r="FR3">
-        <v>1.333249713043318</v>
+        <v>0.3390655707139497</v>
       </c>
       <c r="FS3">
-        <v>3.333256144326449</v>
+        <v>0.4874514644469995</v>
       </c>
       <c r="FT3">
-        <v>5.312459727419521</v>
+        <v>99.14415571626732</v>
       </c>
       <c r="FU3">
-        <v>1.333249713043318</v>
+        <v>3.2768770685559</v>
       </c>
       <c r="FV3">
-        <v>2.33325433849574</v>
+        <v>0.3362981900033545</v>
       </c>
       <c r="FW3">
-        <v>2.33325433849574</v>
+        <v>0.8375310160742353</v>
       </c>
       <c r="FX3">
-        <v>2.33325433849574</v>
+        <v>0.3684507153868504</v>
       </c>
       <c r="FY3">
-        <v>434.8486186646963</v>
+        <v>0.5285212685964039</v>
       </c>
       <c r="FZ3">
-        <v>1.333249713043318</v>
+        <v>0.8777694798746107</v>
       </c>
       <c r="GA3">
-        <v>1.333249713043318</v>
+        <v>0.335096427208065</v>
       </c>
       <c r="GB3">
-        <v>1.333249713043318</v>
+        <v>0.3856626852197923</v>
       </c>
       <c r="GC3">
-        <v>1.333249713043318</v>
+        <v>15.20743157843783</v>
       </c>
       <c r="GD3">
-        <v>1.333249713043318</v>
+        <v>0.3358882163837079</v>
       </c>
       <c r="GE3">
-        <v>323.4763459353339</v>
+        <v>14.08115871209769</v>
       </c>
       <c r="GF3">
-        <v>3.328184435712898</v>
+        <v>0.3374900607554265</v>
       </c>
       <c r="GG3">
-        <v>1.333249713043318</v>
+        <v>0.350516513749517</v>
       </c>
       <c r="GH3">
-        <v>8.330567508957609</v>
+        <v>2.386204320633487</v>
       </c>
       <c r="GI3">
-        <v>1.333249713043318</v>
+        <v>0.3352048374462592</v>
       </c>
       <c r="GJ3">
-        <v>1.333249713043318</v>
+        <v>0.3394828715489903</v>
       </c>
       <c r="GK3">
-        <v>1.333249713043318</v>
+        <v>0.3408152900672037</v>
       </c>
       <c r="GL3">
-        <v>1.333249713043318</v>
+        <v>0.3362020315399297</v>
       </c>
       <c r="GM3">
-        <v>1.333249713043318</v>
+        <v>0.3899743395974664</v>
       </c>
       <c r="GN3">
-        <v>1.333249713043318</v>
+        <v>8.469831600617265</v>
       </c>
       <c r="GO3">
-        <v>1.333249713043318</v>
+        <v>0.3431813061898759</v>
       </c>
       <c r="GP3">
-        <v>1.333249713043318</v>
+        <v>0.3387983157478522</v>
       </c>
       <c r="GQ3">
-        <v>1.333249713043318</v>
+        <v>0.3504955130867073</v>
       </c>
       <c r="GR3">
-        <v>1.333249713043318</v>
+        <v>10.6701578505635</v>
       </c>
       <c r="GS3">
-        <v>1.333249713043318</v>
+        <v>24.53371876176563</v>
+      </c>
+      <c r="GT3">
+        <v>0.3521918749815762</v>
+      </c>
+      <c r="GU3">
+        <v>31.8660406530149</v>
+      </c>
+      <c r="GV3">
+        <v>0.3414248947849784</v>
+      </c>
+      <c r="GW3">
+        <v>0.4385659056830287</v>
+      </c>
+      <c r="GX3">
+        <v>6.888232564583201</v>
+      </c>
+      <c r="GY3">
+        <v>0.3400299997005364</v>
+      </c>
+      <c r="GZ3">
+        <v>15.65649366936809</v>
+      </c>
+      <c r="HA3">
+        <v>0.3373208963149259</v>
+      </c>
+      <c r="HB3">
+        <v>0.7959056728998865</v>
+      </c>
+      <c r="HC3">
+        <v>10.29453627037205</v>
+      </c>
+      <c r="HD3">
+        <v>0.3537650489848141</v>
+      </c>
+      <c r="HE3">
+        <v>0.3356050981278623</v>
+      </c>
+      <c r="HF3">
+        <v>0.3368230329575286</v>
+      </c>
+      <c r="HG3">
+        <v>0.3487196278452973</v>
+      </c>
+      <c r="HH3">
+        <v>4.332049463310831</v>
+      </c>
+      <c r="HI3">
+        <v>0.3384730184513011</v>
+      </c>
+      <c r="HJ3">
+        <v>47.35599294372776</v>
+      </c>
+      <c r="HK3">
+        <v>48.95098606319434</v>
+      </c>
+      <c r="HL3">
+        <v>0.4088823312928023</v>
+      </c>
+      <c r="HM3">
+        <v>6.820137386703304</v>
+      </c>
+      <c r="HN3">
+        <v>2.741174390318274</v>
+      </c>
+      <c r="HO3">
+        <v>0.3434842484701924</v>
+      </c>
+      <c r="HP3">
+        <v>5.055076186132966</v>
+      </c>
+      <c r="HQ3">
+        <v>6.498867035344141</v>
+      </c>
+      <c r="HR3">
+        <v>12.49384006034379</v>
+      </c>
+      <c r="HS3">
+        <v>0.9187819125187575</v>
+      </c>
+      <c r="HT3">
+        <v>4.546396662554074</v>
+      </c>
+      <c r="HU3">
+        <v>36.24555509435861</v>
+      </c>
+      <c r="HV3">
+        <v>0.3962984900119355</v>
+      </c>
+      <c r="HW3">
+        <v>0.3508710305636897</v>
+      </c>
+      <c r="HX3">
+        <v>1.316705646405929</v>
+      </c>
+      <c r="HY3">
+        <v>0.5006505422953834</v>
+      </c>
+      <c r="HZ3">
+        <v>15.30960514028026</v>
+      </c>
+      <c r="IA3">
+        <v>0.3351935669168954</v>
+      </c>
+      <c r="IB3">
+        <v>0.34688209858459</v>
+      </c>
+      <c r="IC3">
+        <v>1.497033882925519</v>
+      </c>
+      <c r="ID3">
+        <v>43.47098090546874</v>
+      </c>
+      <c r="IE3">
+        <v>15.36808471258376</v>
+      </c>
+      <c r="IF3">
+        <v>1.024251210936935</v>
+      </c>
+      <c r="IG3">
+        <v>18.33857704239854</v>
+      </c>
+      <c r="IH3">
+        <v>14.40054461329964</v>
+      </c>
+      <c r="II3">
+        <v>2.034670506131094</v>
+      </c>
+      <c r="IJ3">
+        <v>17.96718858846721</v>
+      </c>
+      <c r="IK3">
+        <v>0.4706177302569122</v>
+      </c>
+      <c r="IL3">
+        <v>0.4104875364519149</v>
+      </c>
+      <c r="IM3">
+        <v>23.86321307697296</v>
+      </c>
+      <c r="IN3">
+        <v>0.3740086958748804</v>
+      </c>
+      <c r="IO3">
+        <v>0.3519004554343778</v>
+      </c>
+      <c r="IP3">
+        <v>25.4673531745472</v>
+      </c>
+      <c r="IQ3">
+        <v>2.039866122749236</v>
+      </c>
+      <c r="IR3">
+        <v>0.3349851702122492</v>
+      </c>
+      <c r="IS3">
+        <v>0.3658503179936684</v>
+      </c>
+      <c r="IT3">
+        <v>9.885250205288168</v>
+      </c>
+      <c r="IU3">
+        <v>0.3363410822422244</v>
+      </c>
+      <c r="IV3">
+        <v>0.3942563541860986</v>
+      </c>
+      <c r="IW3">
+        <v>0.3368832799432121</v>
+      </c>
+      <c r="IX3">
+        <v>0.371800305630783</v>
+      </c>
+      <c r="IY3">
+        <v>0.3418787939076924</v>
+      </c>
+      <c r="IZ3">
+        <v>0.4599475123875891</v>
+      </c>
+      <c r="JA3">
+        <v>0.3347187928248642</v>
+      </c>
+      <c r="JB3">
+        <v>0.3472473020336176</v>
+      </c>
+      <c r="JC3">
+        <v>0.3360765483637146</v>
+      </c>
+      <c r="JD3">
+        <v>23.49086556417548</v>
+      </c>
+      <c r="JE3">
+        <v>0.3624687894935441</v>
+      </c>
+      <c r="JF3">
+        <v>0.3441936409264488</v>
+      </c>
+      <c r="JG3">
+        <v>0.3414813938734852</v>
+      </c>
+      <c r="JH3">
+        <v>0.3409216182338252</v>
+      </c>
+      <c r="JI3">
+        <v>0.349716085281622</v>
+      </c>
+      <c r="JJ3">
+        <v>0.4216510878811329</v>
+      </c>
+      <c r="JK3">
+        <v>12.58477651620533</v>
+      </c>
+      <c r="JL3">
+        <v>2.393049792230443</v>
+      </c>
+      <c r="JM3">
+        <v>0.3498702278184641</v>
+      </c>
+      <c r="JN3">
+        <v>0.3398399438639427</v>
+      </c>
+      <c r="JO3">
+        <v>0.6855207264937615</v>
+      </c>
+      <c r="JP3">
+        <v>0.4357675972253612</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3464805768207563</v>
+      </c>
+      <c r="JR3">
+        <v>0.3921172203411021</v>
+      </c>
+      <c r="JS3">
+        <v>18.18009009314562</v>
+      </c>
+      <c r="JT3">
+        <v>6.402019019637445</v>
+      </c>
+      <c r="JU3">
+        <v>0.3727546555823374</v>
+      </c>
+      <c r="JV3">
+        <v>74.19624797689158</v>
+      </c>
+      <c r="JW3">
+        <v>0.3345717321230865</v>
+      </c>
+      <c r="JX3">
+        <v>0.353076942191847</v>
+      </c>
+      <c r="JY3">
+        <v>0.3450296951598542</v>
+      </c>
+      <c r="JZ3">
+        <v>0.387660668571982</v>
+      </c>
+      <c r="KA3">
+        <v>0.3416161166140013</v>
+      </c>
+      <c r="KB3">
+        <v>0.3386699459052046</v>
+      </c>
+      <c r="KC3">
+        <v>0.3517387074737167</v>
+      </c>
+      <c r="KD3">
+        <v>0.3487443448975588</v>
+      </c>
+      <c r="KE3">
+        <v>0.3571708658212272</v>
+      </c>
+      <c r="KF3">
+        <v>0.3354518034599874</v>
+      </c>
+      <c r="KG3">
+        <v>0.3503771264437887</v>
+      </c>
+      <c r="KH3">
+        <v>0.3352182996852342</v>
+      </c>
+      <c r="KI3">
+        <v>0.3543262452388839</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3400611240899213</v>
+      </c>
+      <c r="KK3">
+        <v>8.149712617931428</v>
+      </c>
+      <c r="KL3">
+        <v>27.87776934198305</v>
+      </c>
+      <c r="KM3">
+        <v>0.3412184743650178</v>
+      </c>
+      <c r="KN3">
+        <v>4.712002007771429</v>
+      </c>
+      <c r="KO3">
+        <v>0.4373241304886264</v>
+      </c>
+      <c r="KP3">
+        <v>47.93564079839955</v>
+      </c>
+      <c r="KQ3">
+        <v>32.65319449101928</v>
+      </c>
+      <c r="KR3">
+        <v>0.3366139246325358</v>
+      </c>
+      <c r="KS3">
+        <v>6.644364499347446</v>
+      </c>
+      <c r="KT3">
+        <v>0.3348889586311129</v>
+      </c>
+      <c r="KU3">
+        <v>15.53869220360707</v>
+      </c>
+      <c r="KV3">
+        <v>73.18466181645185</v>
+      </c>
+      <c r="KW3">
+        <v>8.854086079926459</v>
+      </c>
+      <c r="KX3">
+        <v>4.908058692801794</v>
+      </c>
+      <c r="KY3">
+        <v>2.785578250466582</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3794060832939173</v>
+      </c>
+      <c r="LA3">
+        <v>0.3356965556893747</v>
+      </c>
+      <c r="LB3">
+        <v>33.93850165607699</v>
+      </c>
+      <c r="LC3">
+        <v>0.9425049304556383</v>
+      </c>
+      <c r="LD3">
+        <v>137.3655521799782</v>
+      </c>
+      <c r="LE3">
+        <v>11.15348474790942</v>
+      </c>
+      <c r="LF3">
+        <v>4.703336282801591</v>
+      </c>
+      <c r="LG3">
+        <v>27.26241824175523</v>
+      </c>
+      <c r="LH3">
+        <v>7.591841707373342</v>
+      </c>
+      <c r="LI3">
+        <v>3.186564852594174</v>
+      </c>
+      <c r="LJ3">
+        <v>9.382142938204144</v>
+      </c>
+      <c r="LK3">
+        <v>5.848722727485207</v>
+      </c>
+      <c r="LL3">
+        <v>1.24366538892391</v>
+      </c>
+      <c r="LM3">
+        <v>1.197740667785706</v>
+      </c>
+      <c r="LN3">
+        <v>0.3379275002922406</v>
+      </c>
+      <c r="LO3">
+        <v>0.3417716265965342</v>
+      </c>
+      <c r="LP3">
+        <v>20.6025951506934</v>
+      </c>
+      <c r="LQ3">
+        <v>0.3351066176292469</v>
+      </c>
+      <c r="LR3">
+        <v>3.773981062236036</v>
+      </c>
+      <c r="LS3">
+        <v>58.98794778447559</v>
+      </c>
+      <c r="LT3">
+        <v>0.3397932618752674</v>
+      </c>
+      <c r="LU3">
+        <v>0.3400177438727652</v>
+      </c>
+      <c r="LV3">
+        <v>17.19033437581349</v>
+      </c>
+      <c r="LW3">
+        <v>0.3440936598771384</v>
+      </c>
+      <c r="LX3">
+        <v>0.3360138241501091</v>
+      </c>
+      <c r="LY3">
+        <v>4.991535040945625</v>
+      </c>
+      <c r="LZ3">
+        <v>8.278412114286414</v>
+      </c>
+      <c r="MA3">
+        <v>0.4172648018142602</v>
+      </c>
+      <c r="MB3">
+        <v>22.20735705609626</v>
+      </c>
+      <c r="MC3">
+        <v>0.3626211941250621</v>
+      </c>
+      <c r="MD3">
+        <v>0.3374016396891259</v>
+      </c>
+      <c r="ME3">
+        <v>55.30648453092623</v>
+      </c>
+      <c r="MF3">
+        <v>0.3394103295733418</v>
+      </c>
+      <c r="MG3">
+        <v>28.70422709903983</v>
+      </c>
+      <c r="MH3">
+        <v>2.145748832149126</v>
+      </c>
+      <c r="MI3">
+        <v>1.292655955299826</v>
+      </c>
+      <c r="MJ3">
+        <v>1.648111663428395</v>
+      </c>
+      <c r="MK3">
+        <v>11.69300737738739</v>
+      </c>
+      <c r="ML3">
+        <v>0.3684578877749571</v>
+      </c>
+      <c r="MM3">
+        <v>0.384252216695184</v>
+      </c>
+      <c r="MN3">
+        <v>0.3347312667180469</v>
+      </c>
+      <c r="MO3">
+        <v>0.3501950026576423</v>
+      </c>
+      <c r="MP3">
+        <v>0.3535716386480883</v>
+      </c>
+      <c r="MQ3">
+        <v>1.297245785504533</v>
+      </c>
+      <c r="MR3">
+        <v>8.900112106191843</v>
+      </c>
+      <c r="MS3">
+        <v>0.3473970907203994</v>
+      </c>
+      <c r="MT3">
+        <v>1.788990371754448</v>
+      </c>
+      <c r="MU3">
+        <v>5.05241782902758</v>
+      </c>
+      <c r="MV3">
+        <v>14.2877565142942</v>
+      </c>
+      <c r="MW3">
+        <v>2.911948758683878</v>
+      </c>
+      <c r="MX3">
+        <v>0.3378424592170851</v>
+      </c>
+      <c r="MY3">
+        <v>0.3452506600380269</v>
+      </c>
+      <c r="MZ3">
+        <v>1.565519054409845</v>
+      </c>
+      <c r="NA3">
+        <v>2.117041468459653</v>
+      </c>
+      <c r="NB3">
+        <v>0.8394976650519204</v>
+      </c>
+      <c r="NC3">
+        <v>0.367540353645934</v>
+      </c>
+      <c r="ND3">
+        <v>0.5825740728407363</v>
+      </c>
+      <c r="NE3">
+        <v>0.3485762924311149</v>
+      </c>
+      <c r="NF3">
+        <v>0.3561197352368161</v>
+      </c>
+      <c r="NG3">
+        <v>0.355316710004648</v>
+      </c>
+      <c r="NH3">
+        <v>0.335466791663009</v>
+      </c>
+      <c r="NI3">
+        <v>6.770389784381088</v>
+      </c>
+      <c r="NJ3">
+        <v>2.428017596041864</v>
+      </c>
+      <c r="NK3">
+        <v>1.528497317236484</v>
+      </c>
+      <c r="NL3">
+        <v>0.3721473633117804</v>
+      </c>
+      <c r="NM3">
+        <v>12.74322350415641</v>
+      </c>
+      <c r="NN3">
+        <v>1.049837361850663</v>
+      </c>
+      <c r="NO3">
+        <v>0.3680654851872265</v>
+      </c>
+      <c r="NP3">
+        <v>0.3377746693876447</v>
+      </c>
+      <c r="NQ3">
+        <v>2.657738578470767</v>
+      </c>
+      <c r="NR3">
+        <v>0.335132132096317</v>
+      </c>
+      <c r="NS3">
+        <v>0.3369420787758515</v>
+      </c>
+      <c r="NT3">
+        <v>0.3347389834290749</v>
+      </c>
+      <c r="NU3">
+        <v>0.3386825955235483</v>
+      </c>
+      <c r="NV3">
+        <v>1.544781785677067</v>
+      </c>
+      <c r="NW3">
+        <v>0.3506016705238437</v>
+      </c>
+      <c r="NX3">
+        <v>0.3595938880211768</v>
+      </c>
+      <c r="NY3">
+        <v>0.3376722119636006</v>
+      </c>
+      <c r="NZ3">
+        <v>0.3510102015966898</v>
+      </c>
+      <c r="OA3">
+        <v>12.12631550785335</v>
+      </c>
+      <c r="OB3">
+        <v>37.31081152185661</v>
+      </c>
+      <c r="OC3">
+        <v>0.343210951431803</v>
+      </c>
+      <c r="OD3">
+        <v>16.14518017001766</v>
+      </c>
+      <c r="OE3">
+        <v>7.207348640554732</v>
+      </c>
+      <c r="OF3">
+        <v>0.3509973060238342</v>
+      </c>
+      <c r="OG3">
+        <v>0.3401587169729283</v>
+      </c>
+      <c r="OH3">
+        <v>0.4121412016472661</v>
+      </c>
+      <c r="OI3">
+        <v>0.4202595922510745</v>
+      </c>
+      <c r="OJ3">
+        <v>34.98036740381172</v>
+      </c>
+      <c r="OK3">
+        <v>0.3487142913849481</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>0.3435554017061159</v>
+        <v>23.62616377479473</v>
       </c>
       <c r="C4">
-        <v>0.3614912065516322</v>
+        <v>4.730929368385719</v>
       </c>
       <c r="D4">
-        <v>0.3367604825095689</v>
+        <v>2.241069817300414</v>
       </c>
       <c r="E4">
-        <v>0.3379117789947444</v>
+        <v>4.452105983086227</v>
       </c>
       <c r="F4">
-        <v>0.334511479897099</v>
+        <v>4.323860709422678</v>
       </c>
       <c r="G4">
-        <v>39.77736734152158</v>
+        <v>11.84606862283126</v>
       </c>
       <c r="H4">
-        <v>0.3354519456294559</v>
+        <v>91.41689461726473</v>
       </c>
       <c r="I4">
-        <v>0.369821526196725</v>
+        <v>9.032040016044139</v>
       </c>
       <c r="J4">
-        <v>0.3333343029485655</v>
+        <v>7.355565079821303</v>
       </c>
       <c r="K4">
-        <v>0.3333343379143335</v>
+        <v>10.27430339657687</v>
       </c>
       <c r="L4">
-        <v>0.374402387394175</v>
+        <v>0.3776425967327691</v>
       </c>
       <c r="M4">
-        <v>0.3549801389668928</v>
+        <v>33.86772716481521</v>
       </c>
       <c r="N4">
-        <v>0.3712738520581589</v>
+        <v>67.88667113585997</v>
       </c>
       <c r="O4">
-        <v>0.3605270561222317</v>
+        <v>3.521016573326521</v>
       </c>
       <c r="P4">
-        <v>0.3479513422747333</v>
+        <v>10.76178594705915</v>
       </c>
       <c r="Q4">
-        <v>0.3604121816606468</v>
+        <v>5.308211241489677</v>
       </c>
       <c r="R4">
-        <v>0.3842004446529432</v>
+        <v>3.218526826475535</v>
       </c>
       <c r="S4">
-        <v>0.3840972340615223</v>
+        <v>13.435163854005</v>
       </c>
       <c r="T4">
-        <v>0.341239242875386</v>
+        <v>14.43708993932583</v>
       </c>
       <c r="U4">
-        <v>0.3389437039380332</v>
+        <v>1.333534613140184</v>
       </c>
       <c r="V4">
-        <v>0.333334314966711</v>
+        <v>1.413551580429061</v>
       </c>
       <c r="W4">
-        <v>0.3636200181702223</v>
+        <v>25.1489419047859</v>
       </c>
       <c r="X4">
-        <v>0.3588685238406316</v>
+        <v>0.3739531892888723</v>
       </c>
       <c r="Y4">
-        <v>0.3595414990494568</v>
+        <v>4.701682080607162</v>
       </c>
       <c r="Z4">
-        <v>0.3568683455099052</v>
+        <v>0.3425933821568899</v>
       </c>
       <c r="AA4">
-        <v>56.41228402167302</v>
+        <v>2.949607211382367</v>
       </c>
       <c r="AB4">
-        <v>0.341800451419657</v>
+        <v>2.01673995004839</v>
       </c>
       <c r="AC4">
-        <v>0.3558293143691398</v>
+        <v>14.12154110663526</v>
       </c>
       <c r="AD4">
-        <v>37.99119710423729</v>
+        <v>0.3831221610181007</v>
       </c>
       <c r="AE4">
-        <v>1.001330447162214</v>
+        <v>9.300121408385683</v>
       </c>
       <c r="AF4">
-        <v>0.3333343966886732</v>
+        <v>42.2096984785409</v>
       </c>
       <c r="AG4">
-        <v>0.3348083812835906</v>
+        <v>64.24063807147826</v>
       </c>
       <c r="AH4">
-        <v>0.3333342761768598</v>
+        <v>0.393235028635036</v>
       </c>
       <c r="AI4">
-        <v>0.3333343966886732</v>
+        <v>5.129291695995277</v>
       </c>
       <c r="AJ4">
-        <v>0.3425485168624597</v>
+        <v>3.155506765910512</v>
       </c>
       <c r="AK4">
-        <v>0.3430121774278706</v>
+        <v>0.3852587048186023</v>
       </c>
       <c r="AL4">
-        <v>0.3809266275589391</v>
+        <v>8.981220105539323</v>
       </c>
       <c r="AM4">
-        <v>0.3335332450004566</v>
+        <v>12.0767777865774</v>
       </c>
       <c r="AN4">
-        <v>0.3754248648827004</v>
+        <v>23.70070051692933</v>
       </c>
       <c r="AO4">
-        <v>0.3919819512192182</v>
+        <v>0.3538912222802922</v>
       </c>
       <c r="AP4">
-        <v>0.3333343966886732</v>
+        <v>1.081110038345343</v>
       </c>
       <c r="AQ4">
-        <v>0.3333343966886732</v>
+        <v>1.710473935750968</v>
       </c>
       <c r="AR4">
-        <v>0.3333343379143335</v>
+        <v>0.33931029688743</v>
       </c>
       <c r="AS4">
-        <v>0.3333343029485655</v>
+        <v>5.284699146863832</v>
       </c>
       <c r="AT4">
-        <v>0.3333343966886732</v>
+        <v>15.86427120667324</v>
       </c>
       <c r="AU4">
-        <v>0.3333343966886732</v>
+        <v>6.371421297455905</v>
       </c>
       <c r="AV4">
-        <v>3156.61657211011</v>
+        <v>6.88569870212543</v>
       </c>
       <c r="AW4">
-        <v>0.376493160028989</v>
+        <v>3.58489378295279</v>
       </c>
       <c r="AX4">
-        <v>0.3333343966886732</v>
+        <v>10.34816485878725</v>
       </c>
       <c r="AY4">
-        <v>0.3333343966886732</v>
+        <v>3.40493753344454</v>
       </c>
       <c r="AZ4">
-        <v>0.3333343966886732</v>
+        <v>9.608758254309382</v>
       </c>
       <c r="BA4">
-        <v>0.3333343966886732</v>
+        <v>22.35576012608319</v>
       </c>
       <c r="BB4">
-        <v>0.3333343379143335</v>
+        <v>7.843135443945737</v>
       </c>
       <c r="BC4">
-        <v>0.3604978601157819</v>
+        <v>0.3399535412203104</v>
       </c>
       <c r="BD4">
-        <v>0.333334314966711</v>
+        <v>0.3526961119360941</v>
       </c>
       <c r="BE4">
-        <v>0.3381391675828536</v>
+        <v>11.76741269718924</v>
       </c>
       <c r="BF4">
-        <v>0.3333343966886732</v>
+        <v>7.190629035584511</v>
       </c>
       <c r="BG4">
-        <v>0.3333343966886732</v>
+        <v>0.341736356301884</v>
       </c>
       <c r="BH4">
-        <v>0.3333343379143335</v>
+        <v>0.3456578947059788</v>
       </c>
       <c r="BI4">
-        <v>0.3675560869569697</v>
+        <v>89.37017678657284</v>
       </c>
       <c r="BJ4">
-        <v>315.7152536474601</v>
+        <v>14.83943272430901</v>
       </c>
       <c r="BK4">
-        <v>0.3333343966886732</v>
+        <v>13.16369983024444</v>
       </c>
       <c r="BL4">
-        <v>0.3333343966886732</v>
+        <v>16.06626632122211</v>
       </c>
       <c r="BM4">
-        <v>0.3333343966886732</v>
+        <v>0.375694910622849</v>
       </c>
       <c r="BN4">
-        <v>0.3333343966886732</v>
+        <v>15.22536671274284</v>
       </c>
       <c r="BO4">
-        <v>0.3333343966886732</v>
+        <v>13.84978194078979</v>
       </c>
       <c r="BP4">
-        <v>0.3333343966886732</v>
+        <v>7.79153024189415</v>
       </c>
       <c r="BQ4">
-        <v>0.337749894604635</v>
+        <v>4.963003155155214</v>
       </c>
       <c r="BR4">
-        <v>0.3510816907603009</v>
+        <v>10.01814069129613</v>
       </c>
       <c r="BS4">
-        <v>0.3333343966886732</v>
+        <v>5.291289282390584</v>
       </c>
       <c r="BT4">
-        <v>0.3333343379143335</v>
+        <v>41.37467989716382</v>
       </c>
       <c r="BU4">
-        <v>48.50746346092876</v>
+        <v>5.923923044066176</v>
       </c>
       <c r="BV4">
-        <v>0.3333343966886732</v>
+        <v>6.447182077905449</v>
       </c>
       <c r="BW4">
-        <v>0.3750359941389536</v>
+        <v>19.0073251178892</v>
       </c>
       <c r="BX4">
-        <v>0.3333343966886732</v>
+        <v>3.664450739365408</v>
       </c>
       <c r="BY4">
-        <v>0.3333343966886732</v>
+        <v>2.448248461909118</v>
       </c>
       <c r="BZ4">
-        <v>0.3333343966886732</v>
+        <v>42.82717689598896</v>
       </c>
       <c r="CA4">
-        <v>0.3446225111754413</v>
+        <v>4.677266252330694</v>
       </c>
       <c r="CB4">
-        <v>0.3373104500298508</v>
+        <v>6.652228706290353</v>
       </c>
       <c r="CC4">
-        <v>0.3333343966886732</v>
+        <v>0.883083012887151</v>
       </c>
       <c r="CD4">
-        <v>0.3417137133798942</v>
+        <v>0.3430533176011527</v>
       </c>
       <c r="CE4">
-        <v>0.3333343966886732</v>
+        <v>0.3521833773235541</v>
       </c>
       <c r="CF4">
-        <v>0.3333343966886732</v>
+        <v>0.3367446257428502</v>
       </c>
       <c r="CG4">
-        <v>0.3333343966886732</v>
+        <v>10.95777348167262</v>
       </c>
       <c r="CH4">
-        <v>10.55508096730421</v>
+        <v>20.86167203825865</v>
       </c>
       <c r="CI4">
-        <v>0.3333343966886732</v>
+        <v>0.3729859186954889</v>
       </c>
       <c r="CJ4">
-        <v>0.3434434302545967</v>
+        <v>0.474020314414175</v>
       </c>
       <c r="CK4">
-        <v>0.3393848778343447</v>
+        <v>4.400881959615345</v>
       </c>
       <c r="CL4">
-        <v>0.3339399947812465</v>
+        <v>8.153883505312814</v>
       </c>
       <c r="CM4">
-        <v>0.3333343966886732</v>
+        <v>4.241177596129886</v>
       </c>
       <c r="CN4">
-        <v>0.3360266111972749</v>
+        <v>3.457033572718023</v>
       </c>
       <c r="CO4">
-        <v>0.3563561176133748</v>
+        <v>0.3344676173173662</v>
       </c>
       <c r="CP4">
-        <v>0.3333343379143335</v>
+        <v>3.975557746129002</v>
       </c>
       <c r="CQ4">
-        <v>8.824929921956709</v>
+        <v>0.4100727122377985</v>
       </c>
       <c r="CR4">
-        <v>0.3333343379143335</v>
+        <v>0.3353152021142635</v>
       </c>
       <c r="CS4">
-        <v>0.3333343966886732</v>
+        <v>0.3552777027849949</v>
       </c>
       <c r="CT4">
-        <v>0.3333343966886732</v>
+        <v>0.3592042182102974</v>
       </c>
       <c r="CU4">
-        <v>0.3632453234935865</v>
+        <v>0.3893445925488588</v>
       </c>
       <c r="CV4">
-        <v>0.353837361810561</v>
+        <v>10.72414221973384</v>
       </c>
       <c r="CW4">
-        <v>0.3394904873656542</v>
+        <v>0.3454890020032277</v>
       </c>
       <c r="CX4">
-        <v>0.3333343966886732</v>
+        <v>13.40868107016213</v>
       </c>
       <c r="CY4">
-        <v>0.3333343966886732</v>
+        <v>0.3609417006563967</v>
       </c>
       <c r="CZ4">
-        <v>0.3333343966886732</v>
+        <v>1.872777159775705</v>
       </c>
       <c r="DA4">
-        <v>0.3333343966886732</v>
+        <v>0.3962333778789329</v>
       </c>
       <c r="DB4">
-        <v>0.3411733959563973</v>
+        <v>0.3477403835964771</v>
       </c>
       <c r="DC4">
-        <v>0.3333343966886732</v>
+        <v>0.3432967350768484</v>
       </c>
       <c r="DD4">
-        <v>0.3333343966886732</v>
+        <v>20.92920391463506</v>
       </c>
       <c r="DE4">
-        <v>0.3333343966886732</v>
+        <v>25.74370132014831</v>
       </c>
       <c r="DF4">
-        <v>0.3333343966886732</v>
+        <v>4.588847144277992</v>
       </c>
       <c r="DG4">
-        <v>0.3786501140508654</v>
+        <v>2.583770474485559</v>
       </c>
       <c r="DH4">
-        <v>0.3333343966886732</v>
+        <v>14.15763335267</v>
       </c>
       <c r="DI4">
-        <v>0.3333343966886732</v>
+        <v>36.63761649162608</v>
       </c>
       <c r="DJ4">
-        <v>0.3333343966886732</v>
+        <v>4.534141131218004</v>
       </c>
       <c r="DK4">
-        <v>0.3333343966886732</v>
+        <v>5.330603973043285</v>
       </c>
       <c r="DL4">
-        <v>0.3333343379143335</v>
+        <v>0.3621170643124776</v>
       </c>
       <c r="DM4">
-        <v>0.3333343966886732</v>
+        <v>0.3347963210142877</v>
       </c>
       <c r="DN4">
-        <v>0.3421599374316704</v>
+        <v>3.649661672500871</v>
       </c>
       <c r="DO4">
-        <v>0.3335048152581322</v>
+        <v>0.3480473500814359</v>
       </c>
       <c r="DP4">
-        <v>0.3333343966886732</v>
+        <v>0.3398060607288977</v>
       </c>
       <c r="DQ4">
-        <v>0.3333343966886732</v>
+        <v>0.3526374368149992</v>
       </c>
       <c r="DR4">
-        <v>0.3333343966886732</v>
+        <v>1.112956673713757</v>
       </c>
       <c r="DS4">
-        <v>0.412531137905826</v>
+        <v>9.193585763526153</v>
       </c>
       <c r="DT4">
-        <v>24507.62435663607</v>
+        <v>0.5170048853756982</v>
       </c>
       <c r="DU4">
-        <v>276.6256763600042</v>
+        <v>0.3378056788049241</v>
       </c>
       <c r="DV4">
-        <v>0.3333343029485655</v>
+        <v>1.87215101538567</v>
       </c>
       <c r="DW4">
-        <v>0.3333343966886732</v>
+        <v>40.21879065343986</v>
       </c>
       <c r="DX4">
-        <v>0.3333343966886732</v>
+        <v>0.3464518620256389</v>
       </c>
       <c r="DY4">
-        <v>0.3347907089996233</v>
+        <v>0.334665023204358</v>
       </c>
       <c r="DZ4">
-        <v>0.3333343966886732</v>
+        <v>0.3352733855009419</v>
       </c>
       <c r="EA4">
-        <v>0.3333343966886732</v>
+        <v>11.40631353170887</v>
       </c>
       <c r="EB4">
-        <v>0.3650189355914517</v>
+        <v>5.392672029190469</v>
       </c>
       <c r="EC4">
-        <v>0.3358444950853608</v>
+        <v>68.23257182753962</v>
       </c>
       <c r="ED4">
-        <v>0.3333343966886732</v>
+        <v>4.164330939805189</v>
       </c>
       <c r="EE4">
-        <v>0.3333343966886732</v>
+        <v>0.3625368749325891</v>
       </c>
       <c r="EF4">
-        <v>0.3477141695132073</v>
+        <v>88.29870273027971</v>
       </c>
       <c r="EG4">
-        <v>0.33388362720461</v>
+        <v>4.529431628941506</v>
       </c>
       <c r="EH4">
-        <v>0.3333343966886732</v>
+        <v>4.258195620639993</v>
       </c>
       <c r="EI4">
-        <v>0.338651181443849</v>
+        <v>6.210882835216117</v>
       </c>
       <c r="EJ4">
-        <v>0.3490707193903101</v>
+        <v>20.4798052715294</v>
       </c>
       <c r="EK4">
-        <v>0.3764841339762177</v>
+        <v>7.716969543295752</v>
       </c>
       <c r="EL4">
-        <v>0.3372107152038471</v>
+        <v>0.3464845822060186</v>
       </c>
       <c r="EM4">
-        <v>0.3333343966886732</v>
+        <v>1.679438123953609</v>
       </c>
       <c r="EN4">
-        <v>0.3450272031620883</v>
+        <v>0.3445096259125884</v>
       </c>
       <c r="EO4">
-        <v>0.3333343966886732</v>
+        <v>3.147981679604284</v>
       </c>
       <c r="EP4">
-        <v>0.3333343966886732</v>
+        <v>9.059316226454564</v>
       </c>
       <c r="EQ4">
-        <v>0.3805344048242245</v>
+        <v>11.57234344651968</v>
       </c>
       <c r="ER4">
-        <v>0.3333343966886732</v>
+        <v>3.458237783697008</v>
       </c>
       <c r="ES4">
-        <v>0.3383158151514402</v>
+        <v>0.5336369869233879</v>
       </c>
       <c r="ET4">
-        <v>0.3333343966886732</v>
+        <v>5.050715460752317</v>
       </c>
       <c r="EU4">
-        <v>0.3333343966886732</v>
+        <v>3.663818839040295</v>
       </c>
       <c r="EV4">
-        <v>0.3333343966886732</v>
+        <v>7.108883853977916</v>
       </c>
       <c r="EW4">
-        <v>0.3333343966886732</v>
+        <v>0.3344042528090393</v>
       </c>
       <c r="EX4">
-        <v>0.334031397449928</v>
+        <v>0.3769297477380977</v>
       </c>
       <c r="EY4">
-        <v>0.4882688117489919</v>
+        <v>2.848465992666065</v>
       </c>
       <c r="EZ4">
-        <v>0.3387693632361305</v>
+        <v>1.909298693809589</v>
       </c>
       <c r="FA4">
-        <v>0.3333342822311874</v>
+        <v>7.40527909466117</v>
       </c>
       <c r="FB4">
-        <v>0.3333343379143335</v>
+        <v>3.304981916875463</v>
       </c>
       <c r="FC4">
-        <v>0.3333343379143335</v>
+        <v>0.3581411707018305</v>
       </c>
       <c r="FD4">
-        <v>0.3333343966886732</v>
+        <v>0.3584490630688705</v>
       </c>
       <c r="FE4">
-        <v>0.3333343966886732</v>
+        <v>1.207113847547305</v>
       </c>
       <c r="FF4">
-        <v>0.366838803141984</v>
+        <v>2.347067837822716</v>
       </c>
       <c r="FG4">
-        <v>0.3333343966886732</v>
+        <v>6.067405466112643</v>
       </c>
       <c r="FH4">
-        <v>0.3333343379143335</v>
+        <v>0.3355919686744183</v>
       </c>
       <c r="FI4">
-        <v>0.3638292504449153</v>
+        <v>19.79056274867461</v>
       </c>
       <c r="FJ4">
-        <v>0.3654164385697675</v>
+        <v>1.543634498592992</v>
       </c>
       <c r="FK4">
-        <v>0.3582812646304651</v>
+        <v>0.3349765948415212</v>
       </c>
       <c r="FL4">
-        <v>0.3389768808198746</v>
+        <v>4.689949931967495</v>
       </c>
       <c r="FM4">
-        <v>0.3333343966886732</v>
+        <v>0.3873900926358897</v>
       </c>
       <c r="FN4">
-        <v>0.3333343966886732</v>
+        <v>0.352454387275603</v>
       </c>
       <c r="FO4">
-        <v>0.3333343966886732</v>
+        <v>0.5550988541458943</v>
       </c>
       <c r="FP4">
-        <v>0.3445573483302661</v>
+        <v>23.32286909545206</v>
       </c>
       <c r="FQ4">
-        <v>0.3333343966886732</v>
+        <v>4.188074585181924</v>
       </c>
       <c r="FR4">
-        <v>0.3333343966886732</v>
+        <v>0.3596856474873447</v>
       </c>
       <c r="FS4">
-        <v>0.333334314966711</v>
+        <v>0.4762964571678158</v>
       </c>
       <c r="FT4">
-        <v>0.3540151287962346</v>
+        <v>0.4874788968864745</v>
       </c>
       <c r="FU4">
-        <v>0.3333343966886732</v>
+        <v>1.530474526318787</v>
       </c>
       <c r="FV4">
-        <v>0.3333343379143335</v>
+        <v>0.3354823479867456</v>
       </c>
       <c r="FW4">
-        <v>0.3333343379143335</v>
+        <v>2.155016453543948</v>
       </c>
       <c r="FX4">
-        <v>0.3333343379143335</v>
+        <v>3.175760666967885</v>
       </c>
       <c r="FY4">
-        <v>4.777923616118563</v>
+        <v>9.873969486454614</v>
       </c>
       <c r="FZ4">
-        <v>0.3333343966886732</v>
+        <v>1.525608706160892</v>
       </c>
       <c r="GA4">
-        <v>0.3333343966886732</v>
+        <v>2.204865519733348</v>
       </c>
       <c r="GB4">
-        <v>0.3333343966886732</v>
+        <v>2.355714539306304</v>
       </c>
       <c r="GC4">
-        <v>0.3333343966886732</v>
+        <v>5.120369742955969</v>
       </c>
       <c r="GD4">
-        <v>0.3333343966886732</v>
+        <v>0.336892429362176</v>
       </c>
       <c r="GE4">
-        <v>0.4084920335685744</v>
+        <v>3.745724296176789</v>
       </c>
       <c r="GF4">
-        <v>0.336157143342798</v>
+        <v>0.3368763222703325</v>
       </c>
       <c r="GG4">
-        <v>0.3333343966886732</v>
+        <v>5.926028186394186</v>
       </c>
       <c r="GH4">
-        <v>0.3359791391399555</v>
+        <v>15.29295155636457</v>
       </c>
       <c r="GI4">
-        <v>0.3333343966886732</v>
+        <v>0.3374941285744676</v>
       </c>
       <c r="GJ4">
-        <v>0.3333343966886732</v>
+        <v>31.21789068449008</v>
       </c>
       <c r="GK4">
-        <v>0.3333343966886732</v>
+        <v>2.98934909254443</v>
       </c>
       <c r="GL4">
-        <v>0.3333343966886732</v>
+        <v>1.408821358674422</v>
       </c>
       <c r="GM4">
-        <v>0.3333343966886732</v>
+        <v>0.3684766976199701</v>
       </c>
       <c r="GN4">
-        <v>0.3333343966886732</v>
+        <v>10.06920836230724</v>
       </c>
       <c r="GO4">
-        <v>0.3333343966886732</v>
+        <v>0.3979653642490825</v>
       </c>
       <c r="GP4">
-        <v>0.3333343966886732</v>
+        <v>0.3521015166809437</v>
       </c>
       <c r="GQ4">
-        <v>0.3333343966886732</v>
+        <v>10.77763753081279</v>
       </c>
       <c r="GR4">
-        <v>0.3333343966886732</v>
+        <v>5.526263637396042</v>
       </c>
       <c r="GS4">
-        <v>0.3333343966886732</v>
+        <v>14.63529285402045</v>
+      </c>
+      <c r="GT4">
+        <v>10.56410175670263</v>
+      </c>
+      <c r="GU4">
+        <v>14.96060803169318</v>
+      </c>
+      <c r="GV4">
+        <v>7.710352151851988</v>
+      </c>
+      <c r="GW4">
+        <v>18.27606162332393</v>
+      </c>
+      <c r="GX4">
+        <v>0.7146143914580793</v>
+      </c>
+      <c r="GY4">
+        <v>0.342659069094663</v>
+      </c>
+      <c r="GZ4">
+        <v>0.5353026225453623</v>
+      </c>
+      <c r="HA4">
+        <v>1.419549439737754</v>
+      </c>
+      <c r="HB4">
+        <v>1.708200891276826</v>
+      </c>
+      <c r="HC4">
+        <v>2.77165926527142</v>
+      </c>
+      <c r="HD4">
+        <v>1.828279461041046</v>
+      </c>
+      <c r="HE4">
+        <v>1.399422140511973</v>
+      </c>
+      <c r="HF4">
+        <v>0.3359251096444353</v>
+      </c>
+      <c r="HG4">
+        <v>19.87187282103863</v>
+      </c>
+      <c r="HH4">
+        <v>41.24710081066126</v>
+      </c>
+      <c r="HI4">
+        <v>9.301155446145913</v>
+      </c>
+      <c r="HJ4">
+        <v>12.74674205014841</v>
+      </c>
+      <c r="HK4">
+        <v>0.3967436394135858</v>
+      </c>
+      <c r="HL4">
+        <v>4.955512425882413</v>
+      </c>
+      <c r="HM4">
+        <v>32.18234112041093</v>
+      </c>
+      <c r="HN4">
+        <v>2.09368959815944</v>
+      </c>
+      <c r="HO4">
+        <v>1.620046228969504</v>
+      </c>
+      <c r="HP4">
+        <v>2.988596745739086</v>
+      </c>
+      <c r="HQ4">
+        <v>0.4569646627063056</v>
+      </c>
+      <c r="HR4">
+        <v>8.774408454915664</v>
+      </c>
+      <c r="HS4">
+        <v>4.639977026729428</v>
+      </c>
+      <c r="HT4">
+        <v>7.155955242100247</v>
+      </c>
+      <c r="HU4">
+        <v>17.32676105350353</v>
+      </c>
+      <c r="HV4">
+        <v>0.4236536033924502</v>
+      </c>
+      <c r="HW4">
+        <v>0.3519374926461742</v>
+      </c>
+      <c r="HX4">
+        <v>9.944732345241622</v>
+      </c>
+      <c r="HY4">
+        <v>3.3442908172384</v>
+      </c>
+      <c r="HZ4">
+        <v>0.7674011152209776</v>
+      </c>
+      <c r="IA4">
+        <v>0.3358817852488388</v>
+      </c>
+      <c r="IB4">
+        <v>0.3394924952855982</v>
+      </c>
+      <c r="IC4">
+        <v>6.261966923802992</v>
+      </c>
+      <c r="ID4">
+        <v>0.3443306837353737</v>
+      </c>
+      <c r="IE4">
+        <v>8.971005137206777</v>
+      </c>
+      <c r="IF4">
+        <v>1.964217249023221</v>
+      </c>
+      <c r="IG4">
+        <v>0.349280828780622</v>
+      </c>
+      <c r="IH4">
+        <v>0.3711588271757895</v>
+      </c>
+      <c r="II4">
+        <v>0.3496437864783948</v>
+      </c>
+      <c r="IJ4">
+        <v>8.844752198087711</v>
+      </c>
+      <c r="IK4">
+        <v>0.3441174187948085</v>
+      </c>
+      <c r="IL4">
+        <v>0.3666664097011134</v>
+      </c>
+      <c r="IM4">
+        <v>9.826579505777993</v>
+      </c>
+      <c r="IN4">
+        <v>3.041596331124777</v>
+      </c>
+      <c r="IO4">
+        <v>0.3431739186743792</v>
+      </c>
+      <c r="IP4">
+        <v>8.870233219908053</v>
+      </c>
+      <c r="IQ4">
+        <v>7.70958006314862</v>
+      </c>
+      <c r="IR4">
+        <v>2.379891023756644</v>
+      </c>
+      <c r="IS4">
+        <v>3.283814257876061</v>
+      </c>
+      <c r="IT4">
+        <v>1.892402647915888</v>
+      </c>
+      <c r="IU4">
+        <v>0.3405608158645441</v>
+      </c>
+      <c r="IV4">
+        <v>5.774016981357538</v>
+      </c>
+      <c r="IW4">
+        <v>2.330783882945024</v>
+      </c>
+      <c r="IX4">
+        <v>10.15664690554144</v>
+      </c>
+      <c r="IY4">
+        <v>20.2619560938889</v>
+      </c>
+      <c r="IZ4">
+        <v>4.255702122278492</v>
+      </c>
+      <c r="JA4">
+        <v>1.406071990719266</v>
+      </c>
+      <c r="JB4">
+        <v>0.337406232237314</v>
+      </c>
+      <c r="JC4">
+        <v>0.3395940408259553</v>
+      </c>
+      <c r="JD4">
+        <v>2.531852909265687</v>
+      </c>
+      <c r="JE4">
+        <v>0.3436185093247989</v>
+      </c>
+      <c r="JF4">
+        <v>0.3534681363692477</v>
+      </c>
+      <c r="JG4">
+        <v>0.3373429805504111</v>
+      </c>
+      <c r="JH4">
+        <v>0.8227130930776673</v>
+      </c>
+      <c r="JI4">
+        <v>0.3493503998730625</v>
+      </c>
+      <c r="JJ4">
+        <v>0.5475632677453743</v>
+      </c>
+      <c r="JK4">
+        <v>3.085486577508502</v>
+      </c>
+      <c r="JL4">
+        <v>5.10991736512568</v>
+      </c>
+      <c r="JM4">
+        <v>0.4125449362967298</v>
+      </c>
+      <c r="JN4">
+        <v>0.3616905513822555</v>
+      </c>
+      <c r="JO4">
+        <v>2.644380107422584</v>
+      </c>
+      <c r="JP4">
+        <v>2.564613594582465</v>
+      </c>
+      <c r="JQ4">
+        <v>1.579142200157754</v>
+      </c>
+      <c r="JR4">
+        <v>6.889387321033906</v>
+      </c>
+      <c r="JS4">
+        <v>19.61302832478048</v>
+      </c>
+      <c r="JT4">
+        <v>7.328305977073094</v>
+      </c>
+      <c r="JU4">
+        <v>0.3719264577797589</v>
+      </c>
+      <c r="JV4">
+        <v>58.77307724540677</v>
+      </c>
+      <c r="JW4">
+        <v>0.3346187385390855</v>
+      </c>
+      <c r="JX4">
+        <v>26.35735052872183</v>
+      </c>
+      <c r="JY4">
+        <v>0.7708044333307384</v>
+      </c>
+      <c r="JZ4">
+        <v>0.7037178457461033</v>
+      </c>
+      <c r="KA4">
+        <v>0.3630611815505417</v>
+      </c>
+      <c r="KB4">
+        <v>0.3656184890497715</v>
+      </c>
+      <c r="KC4">
+        <v>4.229378056915174</v>
+      </c>
+      <c r="KD4">
+        <v>0.4639383270511815</v>
+      </c>
+      <c r="KE4">
+        <v>1.676376462131779</v>
+      </c>
+      <c r="KF4">
+        <v>0.3368904372789707</v>
+      </c>
+      <c r="KG4">
+        <v>0.4438856520296864</v>
+      </c>
+      <c r="KH4">
+        <v>0.3364320791209947</v>
+      </c>
+      <c r="KI4">
+        <v>0.3827749942719165</v>
+      </c>
+      <c r="KJ4">
+        <v>0.3366596698316847</v>
+      </c>
+      <c r="KK4">
+        <v>1.098877421647483</v>
+      </c>
+      <c r="KL4">
+        <v>11.27773399577116</v>
+      </c>
+      <c r="KM4">
+        <v>0.3420111669858032</v>
+      </c>
+      <c r="KN4">
+        <v>5.024446850288134</v>
+      </c>
+      <c r="KO4">
+        <v>0.3652557140898622</v>
+      </c>
+      <c r="KP4">
+        <v>34.2413234526873</v>
+      </c>
+      <c r="KQ4">
+        <v>4.37226745899011</v>
+      </c>
+      <c r="KR4">
+        <v>3.222457229844081</v>
+      </c>
+      <c r="KS4">
+        <v>0.3543908601374639</v>
+      </c>
+      <c r="KT4">
+        <v>0.3345921406757413</v>
+      </c>
+      <c r="KU4">
+        <v>7.968244465575697</v>
+      </c>
+      <c r="KV4">
+        <v>3.838030645781346</v>
+      </c>
+      <c r="KW4">
+        <v>0.4007188728811407</v>
+      </c>
+      <c r="KX4">
+        <v>10.17653561914251</v>
+      </c>
+      <c r="KY4">
+        <v>15.11607050421745</v>
+      </c>
+      <c r="KZ4">
+        <v>10.1407759132588</v>
+      </c>
+      <c r="LA4">
+        <v>4.820140269568869</v>
+      </c>
+      <c r="LB4">
+        <v>12.92417790356196</v>
+      </c>
+      <c r="LC4">
+        <v>0.419344126118247</v>
+      </c>
+      <c r="LD4">
+        <v>67.92390889237362</v>
+      </c>
+      <c r="LE4">
+        <v>6.481112034668415</v>
+      </c>
+      <c r="LF4">
+        <v>2.717019869412657</v>
+      </c>
+      <c r="LG4">
+        <v>6.94187567976774</v>
+      </c>
+      <c r="LH4">
+        <v>0.5822800363506657</v>
+      </c>
+      <c r="LI4">
+        <v>7.366760933312783</v>
+      </c>
+      <c r="LJ4">
+        <v>13.98566982840505</v>
+      </c>
+      <c r="LK4">
+        <v>0.8364929997608492</v>
+      </c>
+      <c r="LL4">
+        <v>0.4856649377724024</v>
+      </c>
+      <c r="LM4">
+        <v>0.3729795472923253</v>
+      </c>
+      <c r="LN4">
+        <v>2.911204589474554</v>
+      </c>
+      <c r="LO4">
+        <v>2.529703477118451</v>
+      </c>
+      <c r="LP4">
+        <v>10.04315908578543</v>
+      </c>
+      <c r="LQ4">
+        <v>2.279293193344913</v>
+      </c>
+      <c r="LR4">
+        <v>0.5559815057161619</v>
+      </c>
+      <c r="LS4">
+        <v>0.3538399486521429</v>
+      </c>
+      <c r="LT4">
+        <v>0.3470878749023371</v>
+      </c>
+      <c r="LU4">
+        <v>0.3386475143879801</v>
+      </c>
+      <c r="LV4">
+        <v>21.59481033431177</v>
+      </c>
+      <c r="LW4">
+        <v>0.3363648519499194</v>
+      </c>
+      <c r="LX4">
+        <v>0.337940136957105</v>
+      </c>
+      <c r="LY4">
+        <v>12.81242560676554</v>
+      </c>
+      <c r="LZ4">
+        <v>2.918009136804951</v>
+      </c>
+      <c r="MA4">
+        <v>3.195484674863442</v>
+      </c>
+      <c r="MB4">
+        <v>0.7718285582177276</v>
+      </c>
+      <c r="MC4">
+        <v>0.339480990260242</v>
+      </c>
+      <c r="MD4">
+        <v>0.3368780752637443</v>
+      </c>
+      <c r="ME4">
+        <v>0.3510544516442036</v>
+      </c>
+      <c r="MF4">
+        <v>7.789812148474616</v>
+      </c>
+      <c r="MG4">
+        <v>3.645254358746865</v>
+      </c>
+      <c r="MH4">
+        <v>12.2701475629195</v>
+      </c>
+      <c r="MI4">
+        <v>0.3750293233949573</v>
+      </c>
+      <c r="MJ4">
+        <v>0.4098343603561247</v>
+      </c>
+      <c r="MK4">
+        <v>21.44371795352038</v>
+      </c>
+      <c r="ML4">
+        <v>1.478388659833529</v>
+      </c>
+      <c r="MM4">
+        <v>0.5984823012879842</v>
+      </c>
+      <c r="MN4">
+        <v>1.664508768767717</v>
+      </c>
+      <c r="MO4">
+        <v>11.07876400209987</v>
+      </c>
+      <c r="MP4">
+        <v>4.783274461325773</v>
+      </c>
+      <c r="MQ4">
+        <v>15.18203718328471</v>
+      </c>
+      <c r="MR4">
+        <v>29.39616089472021</v>
+      </c>
+      <c r="MS4">
+        <v>0.3717429760815603</v>
+      </c>
+      <c r="MT4">
+        <v>1.399022807776678</v>
+      </c>
+      <c r="MU4">
+        <v>1.983426709788089</v>
+      </c>
+      <c r="MV4">
+        <v>20.63346754980151</v>
+      </c>
+      <c r="MW4">
+        <v>0.3569561597635585</v>
+      </c>
+      <c r="MX4">
+        <v>2.325177071136165</v>
+      </c>
+      <c r="MY4">
+        <v>2.179983618113323</v>
+      </c>
+      <c r="MZ4">
+        <v>0.3626911154206634</v>
+      </c>
+      <c r="NA4">
+        <v>0.4849551498217856</v>
+      </c>
+      <c r="NB4">
+        <v>3.289331279170062</v>
+      </c>
+      <c r="NC4">
+        <v>4.380340119232952</v>
+      </c>
+      <c r="ND4">
+        <v>0.3753780091518731</v>
+      </c>
+      <c r="NE4">
+        <v>0.3420134571640285</v>
+      </c>
+      <c r="NF4">
+        <v>2.800188043654642</v>
+      </c>
+      <c r="NG4">
+        <v>5.700257320647157</v>
+      </c>
+      <c r="NH4">
+        <v>0.3545564180053599</v>
+      </c>
+      <c r="NI4">
+        <v>7.536807048589453</v>
+      </c>
+      <c r="NJ4">
+        <v>0.8634210862045197</v>
+      </c>
+      <c r="NK4">
+        <v>3.424898384292556</v>
+      </c>
+      <c r="NL4">
+        <v>0.562979775937805</v>
+      </c>
+      <c r="NM4">
+        <v>8.895823240694245</v>
+      </c>
+      <c r="NN4">
+        <v>3.068180231861054</v>
+      </c>
+      <c r="NO4">
+        <v>0.3512313373758247</v>
+      </c>
+      <c r="NP4">
+        <v>14.89139605824125</v>
+      </c>
+      <c r="NQ4">
+        <v>2.136839336124669</v>
+      </c>
+      <c r="NR4">
+        <v>0.3347324690238758</v>
+      </c>
+      <c r="NS4">
+        <v>0.3365171586927856</v>
+      </c>
+      <c r="NT4">
+        <v>0.3348276128312604</v>
+      </c>
+      <c r="NU4">
+        <v>0.3365297648994813</v>
+      </c>
+      <c r="NV4">
+        <v>3.197845242181153</v>
+      </c>
+      <c r="NW4">
+        <v>2.916256304121812</v>
+      </c>
+      <c r="NX4">
+        <v>0.3470982576269793</v>
+      </c>
+      <c r="NY4">
+        <v>2.415244695996789</v>
+      </c>
+      <c r="NZ4">
+        <v>2.23902765272466</v>
+      </c>
+      <c r="OA4">
+        <v>2.712553801345242</v>
+      </c>
+      <c r="OB4">
+        <v>23.96423707440874</v>
+      </c>
+      <c r="OC4">
+        <v>24.94473700679764</v>
+      </c>
+      <c r="OD4">
+        <v>2.564969398824239</v>
+      </c>
+      <c r="OE4">
+        <v>0.3574257802466145</v>
+      </c>
+      <c r="OF4">
+        <v>0.3630557387271157</v>
+      </c>
+      <c r="OG4">
+        <v>0.3364976834478141</v>
+      </c>
+      <c r="OH4">
+        <v>5.836803240168612</v>
+      </c>
+      <c r="OI4">
+        <v>4.715319091956257</v>
+      </c>
+      <c r="OJ4">
+        <v>3.279888156390341</v>
+      </c>
+      <c r="OK4">
+        <v>0.3390230611034373</v>
       </c>
     </row>
   </sheetData>
